--- a/SimpO.xlsx
+++ b/SimpO.xlsx
@@ -699,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -860,23 +860,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -885,36 +879,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -923,6 +887,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -935,36 +902,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -973,6 +943,42 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1254,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1285,112 +1291,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="74"/>
     </row>
     <row r="8" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="71"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="91"/>
     </row>
     <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
     </row>
     <row r="10" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="87"/>
     </row>
     <row r="11" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
@@ -1728,29 +1734,29 @@
     </row>
     <row r="33" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="56"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="54" t="s">
+      <c r="G33" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="55"/>
-      <c r="I33" s="56"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="84"/>
     </row>
     <row r="34" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="87"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="59"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="87"/>
     </row>
     <row r="35" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
@@ -2118,36 +2124,36 @@
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="65" t="s">
+      <c r="A58" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="75"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="76"/>
-      <c r="F58" s="65" t="s">
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
+      <c r="F58" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="66"/>
-      <c r="H58" s="66"/>
-      <c r="I58" s="67"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="74"/>
     </row>
     <row r="59" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="77"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="81"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="72"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="68"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="77"/>
     </row>
     <row r="60" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="82" t="s">
+      <c r="A60" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="89"/>
-      <c r="C60" s="90"/>
-      <c r="D60" s="91"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="81"/>
       <c r="F60" s="49" t="s">
         <v>8</v>
       </c>
@@ -2162,12 +2168,12 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="85" t="s">
+      <c r="A61" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="86"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="88"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="72"/>
       <c r="F61" s="50">
         <v>1</v>
       </c>
@@ -2176,16 +2182,16 @@
       <c r="I61" s="22"/>
     </row>
     <row r="62" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="84" t="s">
+      <c r="B62" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="79" t="s">
+      <c r="C62" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="80" t="s">
+      <c r="D62" s="55" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="51">
@@ -2247,394 +2253,401 @@
       <c r="C67" s="37"/>
       <c r="D67" s="31"/>
     </row>
-    <row r="68" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="65" t="s">
+    <row r="68" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="92"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="93"/>
+    </row>
+    <row r="69" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="67"/>
-    </row>
-    <row r="71" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="68"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
-      <c r="I71" s="72"/>
-    </row>
-    <row r="72" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="54" t="s">
+      <c r="B72" s="73"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="74"/>
+    </row>
+    <row r="73" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="75"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="77"/>
+    </row>
+    <row r="74" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="55"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="54" t="s">
+      <c r="C74" s="83"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="H72" s="55"/>
-      <c r="I72" s="56"/>
-    </row>
-    <row r="73" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="58"/>
-      <c r="I73" s="59"/>
-    </row>
-    <row r="74" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2"/>
-      <c r="B74" s="5" t="s">
+      <c r="H74" s="83"/>
+      <c r="I74" s="84"/>
+    </row>
+    <row r="75" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="87"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="86"/>
+      <c r="I75" s="87"/>
+    </row>
+    <row r="76" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2"/>
+      <c r="B76" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C76" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D76" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="16" t="s">
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H74" s="17" t="s">
+      <c r="H76" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I74" s="18" t="s">
+      <c r="I76" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="64" t="s">
+    <row r="77" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="44"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="64" t="s">
+      <c r="B77" s="44"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="G75" s="44"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="46"/>
-    </row>
-    <row r="76" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="25"/>
-    </row>
-    <row r="77" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="63"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="63"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="28"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="46"/>
     </row>
     <row r="78" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="60" t="s">
+      <c r="A78" s="59"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="25"/>
+    </row>
+    <row r="79" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="88"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="88"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="28"/>
+    </row>
+    <row r="80" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="44"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="60" t="s">
+      <c r="B80" s="44"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="G78" s="44"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="46"/>
-    </row>
-    <row r="79" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="61"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="25"/>
-    </row>
-    <row r="80" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="63"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="28"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="46"/>
     </row>
     <row r="81" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="60" t="s">
+      <c r="A81" s="59"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="25"/>
+    </row>
+    <row r="82" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="88"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="88"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="28"/>
+    </row>
+    <row r="83" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="60" t="s">
+      <c r="B83" s="20"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G81" s="44"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="46"/>
-    </row>
-    <row r="82" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="61"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="25"/>
-    </row>
-    <row r="83" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="62"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="28"/>
-    </row>
-    <row r="84" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="11"/>
-    </row>
-    <row r="85" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" s="55"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="H85" s="55"/>
-      <c r="I85" s="56"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="45"/>
+      <c r="I83" s="46"/>
+    </row>
+    <row r="84" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="59"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="25"/>
+    </row>
+    <row r="85" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="60"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="28"/>
     </row>
     <row r="86" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="59"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="58"/>
-      <c r="I86" s="59"/>
-    </row>
-    <row r="87" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="11"/>
+    </row>
+    <row r="87" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="83"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="H87" s="83"/>
+      <c r="I87" s="84"/>
+    </row>
+    <row r="88" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="87"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="86"/>
+      <c r="I88" s="87"/>
+    </row>
+    <row r="89" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2"/>
+      <c r="B89" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C89" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="D89" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="16" t="s">
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H87" s="17" t="s">
+      <c r="H89" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I87" s="18" t="s">
+      <c r="I89" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="64" t="s">
+    <row r="90" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="44"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="46"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="64" t="s">
+      <c r="B90" s="44"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="G88" s="44"/>
-      <c r="H88" s="45"/>
-      <c r="I88" s="46"/>
-    </row>
-    <row r="89" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="25"/>
-    </row>
-    <row r="90" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="63"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="63"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="28"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="46"/>
     </row>
     <row r="91" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="60" t="s">
+      <c r="A91" s="59"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="25"/>
+    </row>
+    <row r="92" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="88"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="88"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="28"/>
+    </row>
+    <row r="93" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="44"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="46"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="60" t="s">
+      <c r="B93" s="44"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="G91" s="44"/>
-      <c r="H91" s="45"/>
-      <c r="I91" s="46"/>
-    </row>
-    <row r="92" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="25"/>
-    </row>
-    <row r="93" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="63"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="63"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="28"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="45"/>
+      <c r="I93" s="46"/>
     </row>
     <row r="94" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="60" t="s">
+      <c r="A94" s="59"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="59"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="25"/>
+    </row>
+    <row r="95" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="88"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="28"/>
+    </row>
+    <row r="96" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="44"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="46"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="60" t="s">
+      <c r="B96" s="44"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G94" s="44"/>
-      <c r="H94" s="45"/>
-      <c r="I94" s="46"/>
-    </row>
-    <row r="95" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="25"/>
-    </row>
-    <row r="96" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="62"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="28"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="45"/>
+      <c r="I96" s="46"/>
+    </row>
+    <row r="97" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="59"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="25"/>
+    </row>
+    <row r="98" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="60"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="60"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A1:I5"/>
-    <mergeCell ref="A58:D59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="A70:I71"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="B85:D86"/>
-    <mergeCell ref="B72:D73"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A7:I8"/>
+    <mergeCell ref="G74:I75"/>
+    <mergeCell ref="G87:I88"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="F77:F79"/>
     <mergeCell ref="F58:I59"/>
     <mergeCell ref="G33:I34"/>
     <mergeCell ref="B33:D34"/>
     <mergeCell ref="G9:I10"/>
     <mergeCell ref="B9:D10"/>
-    <mergeCell ref="G72:I73"/>
-    <mergeCell ref="G85:I86"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="F91:F93"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="A58:D59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="A72:I73"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="B74:D75"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SimpO.xlsx
+++ b/SimpO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SimpO_HTTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67079C2F-DF92-44A2-AB9C-3630801F30BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -872,6 +873,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -879,6 +904,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -887,9 +936,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -917,21 +963,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -944,41 +975,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1259,146 +1260,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="12" width="48.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="1" customWidth="1"/>
-    <col min="17" max="17" width="48.875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="26.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="48.88671875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="26.44140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+    </row>
+    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="74"/>
-    </row>
-    <row r="8" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="75"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="91"/>
-    </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="73"/>
+    </row>
+    <row r="8" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="74"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="93"/>
+    </row>
+    <row r="9" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="82" t="s">
+      <c r="G9" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
-    </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
+    </row>
+    <row r="10" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="87"/>
-    </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="65"/>
+    </row>
+    <row r="11" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
         <v>5</v>
@@ -1421,7 +1422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -1436,7 +1437,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -1451,7 +1452,7 @@
       <c r="H13" s="24"/>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -1466,7 +1467,7 @@
       <c r="H14" s="24"/>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -1481,7 +1482,7 @@
       <c r="H15" s="24"/>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -1496,7 +1497,7 @@
       <c r="H16" s="24"/>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>6</v>
       </c>
@@ -1511,7 +1512,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>7</v>
       </c>
@@ -1526,7 +1527,7 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>8</v>
       </c>
@@ -1541,7 +1542,7 @@
       <c r="H19" s="24"/>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>9</v>
       </c>
@@ -1556,7 +1557,7 @@
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
     </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>10</v>
       </c>
@@ -1571,7 +1572,7 @@
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
     </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>11</v>
       </c>
@@ -1586,7 +1587,7 @@
       <c r="H22" s="24"/>
       <c r="I22" s="25"/>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>12</v>
       </c>
@@ -1601,7 +1602,7 @@
       <c r="H23" s="24"/>
       <c r="I23" s="25"/>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>13</v>
       </c>
@@ -1616,7 +1617,7 @@
       <c r="H24" s="24"/>
       <c r="I24" s="25"/>
     </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>14</v>
       </c>
@@ -1631,7 +1632,7 @@
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>15</v>
       </c>
@@ -1646,7 +1647,7 @@
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>16</v>
       </c>
@@ -1661,7 +1662,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="25"/>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>17</v>
       </c>
@@ -1676,7 +1677,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>18</v>
       </c>
@@ -1691,7 +1692,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="25"/>
     </row>
-    <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>19</v>
       </c>
@@ -1706,7 +1707,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="25"/>
     </row>
-    <row r="31" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>20</v>
       </c>
@@ -1721,7 +1722,7 @@
       <c r="H31" s="27"/>
       <c r="I31" s="28"/>
     </row>
-    <row r="32" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1732,33 +1733,33 @@
       <c r="H32" s="8"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="83"/>
-      <c r="D33" s="84"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="82" t="s">
+      <c r="G33" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="83"/>
-      <c r="I33" s="84"/>
-    </row>
-    <row r="34" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
+    </row>
+    <row r="34" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="87"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="87"/>
-    </row>
-    <row r="35" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="63"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
+    </row>
+    <row r="35" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="5" t="s">
         <v>5</v>
@@ -1781,7 +1782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -1796,7 +1797,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2</v>
       </c>
@@ -1811,7 +1812,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="25"/>
     </row>
-    <row r="38" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>3</v>
       </c>
@@ -1826,7 +1827,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="25"/>
     </row>
-    <row r="39" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>4</v>
       </c>
@@ -1841,7 +1842,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="25"/>
     </row>
-    <row r="40" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>5</v>
       </c>
@@ -1856,7 +1857,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="25"/>
     </row>
-    <row r="41" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>6</v>
       </c>
@@ -1871,7 +1872,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="25"/>
     </row>
-    <row r="42" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>7</v>
       </c>
@@ -1886,7 +1887,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="25"/>
     </row>
-    <row r="43" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>8</v>
       </c>
@@ -1901,7 +1902,7 @@
       <c r="H43" s="24"/>
       <c r="I43" s="25"/>
     </row>
-    <row r="44" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>9</v>
       </c>
@@ -1916,7 +1917,7 @@
       <c r="H44" s="24"/>
       <c r="I44" s="25"/>
     </row>
-    <row r="45" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>10</v>
       </c>
@@ -1931,7 +1932,7 @@
       <c r="H45" s="24"/>
       <c r="I45" s="25"/>
     </row>
-    <row r="46" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>11</v>
       </c>
@@ -1946,7 +1947,7 @@
       <c r="H46" s="24"/>
       <c r="I46" s="25"/>
     </row>
-    <row r="47" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>12</v>
       </c>
@@ -1961,7 +1962,7 @@
       <c r="H47" s="24"/>
       <c r="I47" s="25"/>
     </row>
-    <row r="48" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>13</v>
       </c>
@@ -1976,7 +1977,7 @@
       <c r="H48" s="24"/>
       <c r="I48" s="25"/>
     </row>
-    <row r="49" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>14</v>
       </c>
@@ -1991,7 +1992,7 @@
       <c r="H49" s="24"/>
       <c r="I49" s="25"/>
     </row>
-    <row r="50" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>15</v>
       </c>
@@ -2006,7 +2007,7 @@
       <c r="H50" s="24"/>
       <c r="I50" s="25"/>
     </row>
-    <row r="51" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>16</v>
       </c>
@@ -2021,7 +2022,7 @@
       <c r="H51" s="24"/>
       <c r="I51" s="25"/>
     </row>
-    <row r="52" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>17</v>
       </c>
@@ -2040,7 +2041,7 @@
       <c r="M52" s="47"/>
       <c r="N52" s="47"/>
     </row>
-    <row r="53" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>18</v>
       </c>
@@ -2059,7 +2060,7 @@
       <c r="M53" s="47"/>
       <c r="N53" s="47"/>
     </row>
-    <row r="54" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>19</v>
       </c>
@@ -2078,7 +2079,7 @@
       <c r="M54" s="47"/>
       <c r="N54" s="47"/>
     </row>
-    <row r="55" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>20</v>
       </c>
@@ -2097,7 +2098,7 @@
       <c r="M55" s="47"/>
       <c r="N55" s="47"/>
     </row>
-    <row r="56" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
@@ -2112,7 +2113,7 @@
       <c r="M56" s="47"/>
       <c r="N56" s="47"/>
     </row>
-    <row r="57" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -2123,37 +2124,37 @@
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
     </row>
-    <row r="58" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="63" t="s">
+    <row r="58" spans="1:14" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="65"/>
-      <c r="F58" s="63" t="s">
+      <c r="B58" s="79"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="80"/>
+      <c r="F58" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
-      <c r="I58" s="74"/>
-    </row>
-    <row r="59" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="66"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="68"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="77"/>
-    </row>
-    <row r="60" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="78" t="s">
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="73"/>
+    </row>
+    <row r="59" spans="1:14" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="81"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="83"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="76"/>
+    </row>
+    <row r="60" spans="1:14" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="79"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="81"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="91"/>
       <c r="F60" s="49" t="s">
         <v>8</v>
       </c>
@@ -2167,13 +2168,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="69" t="s">
+    <row r="61" spans="1:14" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="70"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="72"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="87"/>
       <c r="F61" s="50">
         <v>1</v>
       </c>
@@ -2181,7 +2182,7 @@
       <c r="H61" s="39"/>
       <c r="I61" s="22"/>
     </row>
-    <row r="62" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="56" t="s">
         <v>15</v>
       </c>
@@ -2201,7 +2202,7 @@
       <c r="H62" s="41"/>
       <c r="I62" s="25"/>
     </row>
-    <row r="63" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="50">
         <v>1</v>
       </c>
@@ -2215,7 +2216,7 @@
       <c r="H63" s="41"/>
       <c r="I63" s="25"/>
     </row>
-    <row r="64" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="51">
         <v>2</v>
       </c>
@@ -2229,7 +2230,7 @@
       <c r="H64" s="43"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="51">
         <v>3</v>
       </c>
@@ -2237,7 +2238,7 @@
       <c r="C65" s="35"/>
       <c r="D65" s="30"/>
     </row>
-    <row r="66" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="51">
         <v>4</v>
       </c>
@@ -2245,7 +2246,7 @@
       <c r="C66" s="35"/>
       <c r="D66" s="30"/>
     </row>
-    <row r="67" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="52" t="s">
         <v>8</v>
       </c>
@@ -2253,66 +2254,66 @@
       <c r="C67" s="37"/>
       <c r="D67" s="31"/>
     </row>
-    <row r="68" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="92"/>
-      <c r="B68" s="93"/>
-      <c r="C68" s="93"/>
-      <c r="D68" s="93"/>
-    </row>
-    <row r="69" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="63" t="s">
+    <row r="68" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="58"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+    </row>
+    <row r="69" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="73"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="73"/>
-      <c r="I72" s="74"/>
-    </row>
-    <row r="73" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="75"/>
-      <c r="B73" s="76"/>
-      <c r="C73" s="76"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="76"/>
-      <c r="H73" s="76"/>
-      <c r="I73" s="77"/>
-    </row>
-    <row r="74" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="72"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="73"/>
+    </row>
+    <row r="73" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="74"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="76"/>
+    </row>
+    <row r="74" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="82" t="s">
+      <c r="B74" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="83"/>
-      <c r="D74" s="84"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="62"/>
       <c r="E74" s="3"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="82" t="s">
+      <c r="G74" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="83"/>
-      <c r="I74" s="84"/>
-    </row>
-    <row r="75" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H74" s="61"/>
+      <c r="I74" s="62"/>
+    </row>
+    <row r="75" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="85"/>
-      <c r="C75" s="86"/>
-      <c r="D75" s="87"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="65"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="86"/>
-      <c r="I75" s="87"/>
-    </row>
-    <row r="76" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G75" s="63"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="65"/>
+    </row>
+    <row r="76" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="5" t="s">
         <v>5</v>
@@ -2335,118 +2336,118 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="89" t="s">
+    <row r="77" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="70" t="s">
         <v>10</v>
       </c>
       <c r="B77" s="44"/>
       <c r="C77" s="45"/>
       <c r="D77" s="46"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="89" t="s">
+      <c r="F77" s="70" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="44"/>
       <c r="H77" s="45"/>
       <c r="I77" s="46"/>
     </row>
-    <row r="78" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="59"/>
+    <row r="78" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="67"/>
       <c r="B78" s="23"/>
       <c r="C78" s="24"/>
       <c r="D78" s="25"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="59"/>
+      <c r="F78" s="67"/>
       <c r="G78" s="23"/>
       <c r="H78" s="24"/>
       <c r="I78" s="25"/>
     </row>
-    <row r="79" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="88"/>
+    <row r="79" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="69"/>
       <c r="B79" s="26"/>
       <c r="C79" s="27"/>
       <c r="D79" s="28"/>
       <c r="E79" s="11"/>
-      <c r="F79" s="88"/>
+      <c r="F79" s="69"/>
       <c r="G79" s="26"/>
       <c r="H79" s="27"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="58" t="s">
+    <row r="80" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="66" t="s">
         <v>11</v>
       </c>
       <c r="B80" s="44"/>
       <c r="C80" s="45"/>
       <c r="D80" s="46"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="58" t="s">
+      <c r="F80" s="66" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="44"/>
       <c r="H80" s="45"/>
       <c r="I80" s="46"/>
     </row>
-    <row r="81" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="59"/>
+    <row r="81" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="67"/>
       <c r="B81" s="23"/>
       <c r="C81" s="24"/>
       <c r="D81" s="25"/>
       <c r="E81" s="11"/>
-      <c r="F81" s="59"/>
+      <c r="F81" s="67"/>
       <c r="G81" s="23"/>
       <c r="H81" s="24"/>
       <c r="I81" s="25"/>
     </row>
-    <row r="82" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="88"/>
+    <row r="82" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="69"/>
       <c r="B82" s="26"/>
       <c r="C82" s="27"/>
       <c r="D82" s="28"/>
       <c r="E82" s="11"/>
-      <c r="F82" s="88"/>
+      <c r="F82" s="69"/>
       <c r="G82" s="26"/>
       <c r="H82" s="27"/>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="58" t="s">
+    <row r="83" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="66" t="s">
         <v>12</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="21"/>
       <c r="D83" s="22"/>
       <c r="E83" s="11"/>
-      <c r="F83" s="58" t="s">
+      <c r="F83" s="66" t="s">
         <v>12</v>
       </c>
       <c r="G83" s="44"/>
       <c r="H83" s="45"/>
       <c r="I83" s="46"/>
     </row>
-    <row r="84" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="59"/>
+    <row r="84" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="67"/>
       <c r="B84" s="23"/>
       <c r="C84" s="24"/>
       <c r="D84" s="25"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="59"/>
+      <c r="F84" s="67"/>
       <c r="G84" s="23"/>
       <c r="H84" s="24"/>
       <c r="I84" s="25"/>
     </row>
-    <row r="85" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="60"/>
+    <row r="85" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="68"/>
       <c r="B85" s="26"/>
       <c r="C85" s="27"/>
       <c r="D85" s="28"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="60"/>
+      <c r="F85" s="68"/>
       <c r="G85" s="26"/>
       <c r="H85" s="27"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -2457,33 +2458,33 @@
       <c r="H86" s="8"/>
       <c r="I86" s="11"/>
     </row>
-    <row r="87" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="82" t="s">
+      <c r="B87" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="83"/>
-      <c r="D87" s="84"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="62"/>
       <c r="E87" s="3"/>
       <c r="F87" s="8"/>
-      <c r="G87" s="82" t="s">
+      <c r="G87" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="H87" s="83"/>
-      <c r="I87" s="84"/>
-    </row>
-    <row r="88" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H87" s="61"/>
+      <c r="I87" s="62"/>
+    </row>
+    <row r="88" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
-      <c r="B88" s="85"/>
-      <c r="C88" s="86"/>
-      <c r="D88" s="87"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="65"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="86"/>
-      <c r="I88" s="87"/>
-    </row>
-    <row r="89" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G88" s="63"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="65"/>
+    </row>
+    <row r="89" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="16" t="s">
         <v>5</v>
@@ -2506,132 +2507,119 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="89" t="s">
+    <row r="90" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="70" t="s">
         <v>10</v>
       </c>
       <c r="B90" s="44"/>
       <c r="C90" s="45"/>
       <c r="D90" s="46"/>
       <c r="E90" s="11"/>
-      <c r="F90" s="89" t="s">
+      <c r="F90" s="70" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="44"/>
       <c r="H90" s="45"/>
       <c r="I90" s="46"/>
     </row>
-    <row r="91" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="59"/>
+    <row r="91" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="67"/>
       <c r="B91" s="23"/>
       <c r="C91" s="24"/>
       <c r="D91" s="25"/>
       <c r="E91" s="11"/>
-      <c r="F91" s="59"/>
+      <c r="F91" s="67"/>
       <c r="G91" s="23"/>
       <c r="H91" s="24"/>
       <c r="I91" s="25"/>
     </row>
-    <row r="92" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="88"/>
+    <row r="92" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="69"/>
       <c r="B92" s="26"/>
       <c r="C92" s="27"/>
       <c r="D92" s="28"/>
       <c r="E92" s="11"/>
-      <c r="F92" s="88"/>
+      <c r="F92" s="69"/>
       <c r="G92" s="26"/>
       <c r="H92" s="27"/>
       <c r="I92" s="28"/>
     </row>
-    <row r="93" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="58" t="s">
+    <row r="93" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="66" t="s">
         <v>11</v>
       </c>
       <c r="B93" s="44"/>
       <c r="C93" s="45"/>
       <c r="D93" s="46"/>
       <c r="E93" s="11"/>
-      <c r="F93" s="58" t="s">
+      <c r="F93" s="66" t="s">
         <v>11</v>
       </c>
       <c r="G93" s="44"/>
       <c r="H93" s="45"/>
       <c r="I93" s="46"/>
     </row>
-    <row r="94" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="59"/>
+    <row r="94" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="67"/>
       <c r="B94" s="23"/>
       <c r="C94" s="24"/>
       <c r="D94" s="25"/>
       <c r="E94" s="11"/>
-      <c r="F94" s="59"/>
+      <c r="F94" s="67"/>
       <c r="G94" s="23"/>
       <c r="H94" s="24"/>
       <c r="I94" s="25"/>
     </row>
-    <row r="95" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="88"/>
+    <row r="95" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="69"/>
       <c r="B95" s="26"/>
       <c r="C95" s="27"/>
       <c r="D95" s="28"/>
       <c r="E95" s="11"/>
-      <c r="F95" s="88"/>
+      <c r="F95" s="69"/>
       <c r="G95" s="26"/>
       <c r="H95" s="27"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="58" t="s">
+    <row r="96" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="66" t="s">
         <v>12</v>
       </c>
       <c r="B96" s="44"/>
       <c r="C96" s="45"/>
       <c r="D96" s="46"/>
       <c r="E96" s="11"/>
-      <c r="F96" s="58" t="s">
+      <c r="F96" s="66" t="s">
         <v>12</v>
       </c>
       <c r="G96" s="44"/>
       <c r="H96" s="45"/>
       <c r="I96" s="46"/>
     </row>
-    <row r="97" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="59"/>
+    <row r="97" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="67"/>
       <c r="B97" s="23"/>
       <c r="C97" s="24"/>
       <c r="D97" s="25"/>
       <c r="E97" s="11"/>
-      <c r="F97" s="59"/>
+      <c r="F97" s="67"/>
       <c r="G97" s="23"/>
       <c r="H97" s="24"/>
       <c r="I97" s="25"/>
     </row>
-    <row r="98" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="60"/>
+    <row r="98" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="68"/>
       <c r="B98" s="26"/>
       <c r="C98" s="27"/>
       <c r="D98" s="28"/>
       <c r="E98" s="19"/>
-      <c r="F98" s="60"/>
+      <c r="F98" s="68"/>
       <c r="G98" s="26"/>
       <c r="H98" s="27"/>
       <c r="I98" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="G74:I75"/>
-    <mergeCell ref="G87:I88"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="F58:I59"/>
-    <mergeCell ref="G33:I34"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="B9:D10"/>
     <mergeCell ref="A96:A98"/>
     <mergeCell ref="A1:I5"/>
     <mergeCell ref="A58:D59"/>
@@ -2648,6 +2636,19 @@
     <mergeCell ref="A80:A82"/>
     <mergeCell ref="A77:A79"/>
     <mergeCell ref="A7:I8"/>
+    <mergeCell ref="F58:I59"/>
+    <mergeCell ref="G33:I34"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="G74:I75"/>
+    <mergeCell ref="G87:I88"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="F77:F79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SimpO.xlsx
+++ b/SimpO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SimpO_HTTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67079C2F-DF92-44A2-AB9C-3630801F30BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060F1C30-CC3D-4FA5-AFCE-CAD6200EBB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="21">
   <si>
     <t>KHỞI ĐỘNG</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>ĐƯỜNG DẪN ẢNH CNV</t>
+  </si>
+  <si>
+    <t>Ảnh kết thúc</t>
+  </si>
+  <si>
+    <t>CÂU HỎI PHỤ</t>
   </si>
 </sst>
 </file>
@@ -162,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -696,11 +702,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -879,24 +944,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -904,30 +951,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -936,6 +959,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -963,6 +989,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -975,11 +1016,68 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1261,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" x14ac:dyDescent="0.25"/>
@@ -1292,112 +1390,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="73"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
     </row>
     <row r="8" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="74"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="92"/>
       <c r="C8" s="92"/>
       <c r="D8" s="92"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="92"/>
       <c r="H8" s="92"/>
       <c r="I8" s="93"/>
     </row>
     <row r="9" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="86"/>
     </row>
     <row r="10" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="89"/>
     </row>
     <row r="11" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
@@ -1735,29 +1833,29 @@
     </row>
     <row r="33" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="62"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="86"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="60" t="s">
+      <c r="G33" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="86"/>
     </row>
     <row r="34" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="89"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="65"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="89"/>
     </row>
     <row r="35" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
@@ -2125,36 +2223,36 @@
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:14" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="71" t="s">
+      <c r="A58" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="79"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="80"/>
-      <c r="F58" s="71" t="s">
+      <c r="B58" s="66"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="67"/>
+      <c r="F58" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="72"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="73"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="76"/>
     </row>
     <row r="59" spans="1:14" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="81"/>
-      <c r="B59" s="82"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="83"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="76"/>
+      <c r="A59" s="68"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="70"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="79"/>
     </row>
     <row r="60" spans="1:14" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="88" t="s">
+      <c r="A60" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="89"/>
-      <c r="C60" s="90"/>
-      <c r="D60" s="91"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="83"/>
       <c r="F60" s="49" t="s">
         <v>8</v>
       </c>
@@ -2167,14 +2265,17 @@
       <c r="I60" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="J60" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="84" t="s">
+      <c r="A61" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="85"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="87"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="74"/>
       <c r="F61" s="50">
         <v>1</v>
       </c>
@@ -2264,54 +2365,54 @@
     <row r="70" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="71" t="s">
+      <c r="A72" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="72"/>
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="72"/>
-      <c r="I72" s="73"/>
+      <c r="B72" s="75"/>
+      <c r="C72" s="75"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="75"/>
+      <c r="H72" s="75"/>
+      <c r="I72" s="76"/>
     </row>
     <row r="73" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="74"/>
-      <c r="B73" s="75"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="75"/>
-      <c r="G73" s="75"/>
-      <c r="H73" s="75"/>
-      <c r="I73" s="76"/>
+      <c r="A73" s="77"/>
+      <c r="B73" s="78"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="78"/>
+      <c r="F73" s="78"/>
+      <c r="G73" s="78"/>
+      <c r="H73" s="78"/>
+      <c r="I73" s="79"/>
     </row>
     <row r="74" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="60" t="s">
+      <c r="B74" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="61"/>
-      <c r="D74" s="62"/>
+      <c r="C74" s="85"/>
+      <c r="D74" s="86"/>
       <c r="E74" s="3"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="60" t="s">
+      <c r="G74" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="61"/>
-      <c r="I74" s="62"/>
+      <c r="H74" s="85"/>
+      <c r="I74" s="86"/>
     </row>
     <row r="75" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="63"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="65"/>
+      <c r="B75" s="87"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="89"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="64"/>
-      <c r="I75" s="65"/>
+      <c r="G75" s="87"/>
+      <c r="H75" s="88"/>
+      <c r="I75" s="89"/>
     </row>
     <row r="76" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
@@ -2337,14 +2438,14 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="91" t="s">
         <v>10</v>
       </c>
       <c r="B77" s="44"/>
       <c r="C77" s="45"/>
       <c r="D77" s="46"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="70" t="s">
+      <c r="F77" s="91" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="44"/>
@@ -2352,36 +2453,36 @@
       <c r="I77" s="46"/>
     </row>
     <row r="78" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="67"/>
+      <c r="A78" s="61"/>
       <c r="B78" s="23"/>
       <c r="C78" s="24"/>
       <c r="D78" s="25"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="67"/>
+      <c r="F78" s="61"/>
       <c r="G78" s="23"/>
       <c r="H78" s="24"/>
       <c r="I78" s="25"/>
     </row>
     <row r="79" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="69"/>
+      <c r="A79" s="90"/>
       <c r="B79" s="26"/>
       <c r="C79" s="27"/>
       <c r="D79" s="28"/>
       <c r="E79" s="11"/>
-      <c r="F79" s="69"/>
+      <c r="F79" s="90"/>
       <c r="G79" s="26"/>
       <c r="H79" s="27"/>
       <c r="I79" s="28"/>
     </row>
     <row r="80" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="66" t="s">
+      <c r="A80" s="60" t="s">
         <v>11</v>
       </c>
       <c r="B80" s="44"/>
       <c r="C80" s="45"/>
       <c r="D80" s="46"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="66" t="s">
+      <c r="F80" s="60" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="44"/>
@@ -2389,36 +2490,36 @@
       <c r="I80" s="46"/>
     </row>
     <row r="81" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="67"/>
+      <c r="A81" s="61"/>
       <c r="B81" s="23"/>
       <c r="C81" s="24"/>
       <c r="D81" s="25"/>
       <c r="E81" s="11"/>
-      <c r="F81" s="67"/>
+      <c r="F81" s="61"/>
       <c r="G81" s="23"/>
       <c r="H81" s="24"/>
       <c r="I81" s="25"/>
     </row>
     <row r="82" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="69"/>
+      <c r="A82" s="90"/>
       <c r="B82" s="26"/>
       <c r="C82" s="27"/>
       <c r="D82" s="28"/>
       <c r="E82" s="11"/>
-      <c r="F82" s="69"/>
+      <c r="F82" s="90"/>
       <c r="G82" s="26"/>
       <c r="H82" s="27"/>
       <c r="I82" s="28"/>
     </row>
     <row r="83" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="66" t="s">
+      <c r="A83" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="21"/>
       <c r="D83" s="22"/>
       <c r="E83" s="11"/>
-      <c r="F83" s="66" t="s">
+      <c r="F83" s="60" t="s">
         <v>12</v>
       </c>
       <c r="G83" s="44"/>
@@ -2426,23 +2527,23 @@
       <c r="I83" s="46"/>
     </row>
     <row r="84" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="67"/>
+      <c r="A84" s="61"/>
       <c r="B84" s="23"/>
       <c r="C84" s="24"/>
       <c r="D84" s="25"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="67"/>
+      <c r="F84" s="61"/>
       <c r="G84" s="23"/>
       <c r="H84" s="24"/>
       <c r="I84" s="25"/>
     </row>
     <row r="85" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="68"/>
+      <c r="A85" s="62"/>
       <c r="B85" s="26"/>
       <c r="C85" s="27"/>
       <c r="D85" s="28"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="68"/>
+      <c r="F85" s="62"/>
       <c r="G85" s="26"/>
       <c r="H85" s="27"/>
       <c r="I85" s="28"/>
@@ -2460,29 +2561,29 @@
     </row>
     <row r="87" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="60" t="s">
+      <c r="B87" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="61"/>
-      <c r="D87" s="62"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="86"/>
       <c r="E87" s="3"/>
       <c r="F87" s="8"/>
-      <c r="G87" s="60" t="s">
+      <c r="G87" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="H87" s="61"/>
-      <c r="I87" s="62"/>
+      <c r="H87" s="85"/>
+      <c r="I87" s="86"/>
     </row>
     <row r="88" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
-      <c r="B88" s="63"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="65"/>
+      <c r="B88" s="87"/>
+      <c r="C88" s="88"/>
+      <c r="D88" s="89"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="64"/>
-      <c r="I88" s="65"/>
+      <c r="G88" s="87"/>
+      <c r="H88" s="88"/>
+      <c r="I88" s="89"/>
     </row>
     <row r="89" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
@@ -2508,14 +2609,14 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="70" t="s">
+      <c r="A90" s="91" t="s">
         <v>10</v>
       </c>
       <c r="B90" s="44"/>
       <c r="C90" s="45"/>
       <c r="D90" s="46"/>
       <c r="E90" s="11"/>
-      <c r="F90" s="70" t="s">
+      <c r="F90" s="91" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="44"/>
@@ -2523,36 +2624,36 @@
       <c r="I90" s="46"/>
     </row>
     <row r="91" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="67"/>
+      <c r="A91" s="61"/>
       <c r="B91" s="23"/>
       <c r="C91" s="24"/>
       <c r="D91" s="25"/>
       <c r="E91" s="11"/>
-      <c r="F91" s="67"/>
+      <c r="F91" s="61"/>
       <c r="G91" s="23"/>
       <c r="H91" s="24"/>
       <c r="I91" s="25"/>
     </row>
     <row r="92" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="69"/>
+      <c r="A92" s="90"/>
       <c r="B92" s="26"/>
       <c r="C92" s="27"/>
       <c r="D92" s="28"/>
       <c r="E92" s="11"/>
-      <c r="F92" s="69"/>
+      <c r="F92" s="90"/>
       <c r="G92" s="26"/>
       <c r="H92" s="27"/>
       <c r="I92" s="28"/>
     </row>
     <row r="93" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="66" t="s">
+      <c r="A93" s="60" t="s">
         <v>11</v>
       </c>
       <c r="B93" s="44"/>
       <c r="C93" s="45"/>
       <c r="D93" s="46"/>
       <c r="E93" s="11"/>
-      <c r="F93" s="66" t="s">
+      <c r="F93" s="60" t="s">
         <v>11</v>
       </c>
       <c r="G93" s="44"/>
@@ -2560,36 +2661,36 @@
       <c r="I93" s="46"/>
     </row>
     <row r="94" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="67"/>
+      <c r="A94" s="61"/>
       <c r="B94" s="23"/>
       <c r="C94" s="24"/>
       <c r="D94" s="25"/>
       <c r="E94" s="11"/>
-      <c r="F94" s="67"/>
+      <c r="F94" s="61"/>
       <c r="G94" s="23"/>
       <c r="H94" s="24"/>
       <c r="I94" s="25"/>
     </row>
     <row r="95" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="69"/>
+      <c r="A95" s="90"/>
       <c r="B95" s="26"/>
       <c r="C95" s="27"/>
       <c r="D95" s="28"/>
       <c r="E95" s="11"/>
-      <c r="F95" s="69"/>
+      <c r="F95" s="90"/>
       <c r="G95" s="26"/>
       <c r="H95" s="27"/>
       <c r="I95" s="28"/>
     </row>
     <row r="96" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="66" t="s">
+      <c r="A96" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B96" s="44"/>
       <c r="C96" s="45"/>
       <c r="D96" s="46"/>
       <c r="E96" s="11"/>
-      <c r="F96" s="66" t="s">
+      <c r="F96" s="60" t="s">
         <v>12</v>
       </c>
       <c r="G96" s="44"/>
@@ -2597,29 +2698,174 @@
       <c r="I96" s="46"/>
     </row>
     <row r="97" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="67"/>
+      <c r="A97" s="61"/>
       <c r="B97" s="23"/>
       <c r="C97" s="24"/>
       <c r="D97" s="25"/>
       <c r="E97" s="11"/>
-      <c r="F97" s="67"/>
+      <c r="F97" s="61"/>
       <c r="G97" s="23"/>
       <c r="H97" s="24"/>
       <c r="I97" s="25"/>
     </row>
     <row r="98" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="68"/>
+      <c r="A98" s="62"/>
       <c r="B98" s="26"/>
       <c r="C98" s="27"/>
       <c r="D98" s="28"/>
       <c r="E98" s="19"/>
-      <c r="F98" s="68"/>
+      <c r="F98" s="62"/>
       <c r="G98" s="26"/>
       <c r="H98" s="27"/>
       <c r="I98" s="28"/>
     </row>
+    <row r="99" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" s="66"/>
+      <c r="C100" s="66"/>
+      <c r="D100" s="67"/>
+    </row>
+    <row r="101" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="68"/>
+      <c r="B101" s="94"/>
+      <c r="C101" s="94"/>
+      <c r="D101" s="95"/>
+    </row>
+    <row r="102" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="49"/>
+      <c r="B102" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="56">
+        <v>1</v>
+      </c>
+      <c r="B103" s="103"/>
+      <c r="C103" s="100"/>
+      <c r="D103" s="101"/>
+    </row>
+    <row r="104" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="56">
+        <v>2</v>
+      </c>
+      <c r="B104" s="104"/>
+      <c r="C104" s="99"/>
+      <c r="D104" s="102"/>
+    </row>
+    <row r="105" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="56">
+        <v>3</v>
+      </c>
+      <c r="B105" s="104"/>
+      <c r="C105" s="99"/>
+      <c r="D105" s="102"/>
+    </row>
+    <row r="106" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="56">
+        <v>4</v>
+      </c>
+      <c r="B106" s="104"/>
+      <c r="C106" s="99"/>
+      <c r="D106" s="102"/>
+    </row>
+    <row r="107" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="56">
+        <v>5</v>
+      </c>
+      <c r="B107" s="104"/>
+      <c r="C107" s="99"/>
+      <c r="D107" s="102"/>
+    </row>
+    <row r="108" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="56">
+        <v>6</v>
+      </c>
+      <c r="B108" s="104"/>
+      <c r="C108" s="99"/>
+      <c r="D108" s="102"/>
+    </row>
+    <row r="109" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="56">
+        <v>7</v>
+      </c>
+      <c r="B109" s="104"/>
+      <c r="C109" s="99"/>
+      <c r="D109" s="102"/>
+    </row>
+    <row r="110" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="56">
+        <v>8</v>
+      </c>
+      <c r="B110" s="104"/>
+      <c r="C110" s="99"/>
+      <c r="D110" s="102"/>
+    </row>
+    <row r="111" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="51">
+        <v>9</v>
+      </c>
+      <c r="B111" s="34"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="30"/>
+    </row>
+    <row r="112" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="51">
+        <v>10</v>
+      </c>
+      <c r="B112" s="34"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="30"/>
+    </row>
+    <row r="113" spans="1:4" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="51">
+        <v>11</v>
+      </c>
+      <c r="B113" s="34"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="30"/>
+    </row>
+    <row r="114" spans="1:4" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="51">
+        <v>12</v>
+      </c>
+      <c r="B114" s="34"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="30"/>
+    </row>
+    <row r="115" spans="1:4" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="52">
+        <v>13</v>
+      </c>
+      <c r="B115" s="36"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
+    <mergeCell ref="A100:D101"/>
+    <mergeCell ref="G74:I75"/>
+    <mergeCell ref="G87:I88"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="F58:I59"/>
+    <mergeCell ref="G33:I34"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="B9:D10"/>
     <mergeCell ref="A96:A98"/>
     <mergeCell ref="A1:I5"/>
     <mergeCell ref="A58:D59"/>
@@ -2636,19 +2882,6 @@
     <mergeCell ref="A80:A82"/>
     <mergeCell ref="A77:A79"/>
     <mergeCell ref="A7:I8"/>
-    <mergeCell ref="F58:I59"/>
-    <mergeCell ref="G33:I34"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="G74:I75"/>
-    <mergeCell ref="G87:I88"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="F77:F79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SimpO.xlsx
+++ b/SimpO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SimpO_HTTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060F1C30-CC3D-4FA5-AFCE-CAD6200EBB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="26295" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -168,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -748,24 +747,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -944,6 +930,63 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -953,24 +996,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -989,21 +1041,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1016,67 +1053,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1358,146 +1350,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N412"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A400" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B407" sqref="B407"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="48.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="1" customWidth="1"/>
-    <col min="17" max="17" width="48.88671875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="26.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="48.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="26.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-    </row>
-    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+    </row>
+    <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+    </row>
+    <row r="3" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+    </row>
+    <row r="4" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="90"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+    </row>
+    <row r="5" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="76"/>
-    </row>
-    <row r="8" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="93"/>
-    </row>
-    <row r="9" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="85"/>
+    </row>
+    <row r="8" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="86"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
+    </row>
+    <row r="9" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="85"/>
-      <c r="I9" s="86"/>
-    </row>
-    <row r="10" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="74"/>
+      <c r="I9" s="75"/>
+    </row>
+    <row r="10" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="89"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="89"/>
-    </row>
-    <row r="11" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="78"/>
+    </row>
+    <row r="11" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
         <v>5</v>
@@ -1520,7 +1512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -1535,7 +1527,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -1550,7 +1542,7 @@
       <c r="H13" s="24"/>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -1565,7 +1557,7 @@
       <c r="H14" s="24"/>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -1580,7 +1572,7 @@
       <c r="H15" s="24"/>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -1595,7 +1587,7 @@
       <c r="H16" s="24"/>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>6</v>
       </c>
@@ -1610,7 +1602,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>7</v>
       </c>
@@ -1625,7 +1617,7 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>8</v>
       </c>
@@ -1640,7 +1632,7 @@
       <c r="H19" s="24"/>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>9</v>
       </c>
@@ -1655,7 +1647,7 @@
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
     </row>
-    <row r="21" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>10</v>
       </c>
@@ -1670,7 +1662,7 @@
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
     </row>
-    <row r="22" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>11</v>
       </c>
@@ -1685,7 +1677,7 @@
       <c r="H22" s="24"/>
       <c r="I22" s="25"/>
     </row>
-    <row r="23" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>12</v>
       </c>
@@ -1700,7 +1692,7 @@
       <c r="H23" s="24"/>
       <c r="I23" s="25"/>
     </row>
-    <row r="24" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>13</v>
       </c>
@@ -1715,7 +1707,7 @@
       <c r="H24" s="24"/>
       <c r="I24" s="25"/>
     </row>
-    <row r="25" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>14</v>
       </c>
@@ -1730,7 +1722,7 @@
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>15</v>
       </c>
@@ -1745,7 +1737,7 @@
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>16</v>
       </c>
@@ -1760,7 +1752,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="25"/>
     </row>
-    <row r="28" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>17</v>
       </c>
@@ -1775,7 +1767,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>18</v>
       </c>
@@ -1790,7 +1782,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="25"/>
     </row>
-    <row r="30" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>19</v>
       </c>
@@ -1805,7 +1797,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="25"/>
     </row>
-    <row r="31" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>20</v>
       </c>
@@ -1820,7 +1812,7 @@
       <c r="H31" s="27"/>
       <c r="I31" s="28"/>
     </row>
-    <row r="32" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1831,33 +1823,33 @@
       <c r="H32" s="8"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="86"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="75"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="84" t="s">
+      <c r="G33" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="85"/>
-      <c r="I33" s="86"/>
-    </row>
-    <row r="34" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="74"/>
+      <c r="I33" s="75"/>
+    </row>
+    <row r="34" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="89"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="78"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="89"/>
-    </row>
-    <row r="35" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="76"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="78"/>
+    </row>
+    <row r="35" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="5" t="s">
         <v>5</v>
@@ -1880,7 +1872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -1895,7 +1887,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2</v>
       </c>
@@ -1910,7 +1902,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="25"/>
     </row>
-    <row r="38" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>3</v>
       </c>
@@ -1925,7 +1917,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="25"/>
     </row>
-    <row r="39" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>4</v>
       </c>
@@ -1940,7 +1932,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="25"/>
     </row>
-    <row r="40" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>5</v>
       </c>
@@ -1955,7 +1947,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="25"/>
     </row>
-    <row r="41" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>6</v>
       </c>
@@ -1970,7 +1962,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="25"/>
     </row>
-    <row r="42" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>7</v>
       </c>
@@ -1985,7 +1977,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="25"/>
     </row>
-    <row r="43" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>8</v>
       </c>
@@ -2000,7 +1992,7 @@
       <c r="H43" s="24"/>
       <c r="I43" s="25"/>
     </row>
-    <row r="44" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>9</v>
       </c>
@@ -2015,7 +2007,7 @@
       <c r="H44" s="24"/>
       <c r="I44" s="25"/>
     </row>
-    <row r="45" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>10</v>
       </c>
@@ -2030,7 +2022,7 @@
       <c r="H45" s="24"/>
       <c r="I45" s="25"/>
     </row>
-    <row r="46" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>11</v>
       </c>
@@ -2045,7 +2037,7 @@
       <c r="H46" s="24"/>
       <c r="I46" s="25"/>
     </row>
-    <row r="47" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>12</v>
       </c>
@@ -2060,7 +2052,7 @@
       <c r="H47" s="24"/>
       <c r="I47" s="25"/>
     </row>
-    <row r="48" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>13</v>
       </c>
@@ -2075,7 +2067,7 @@
       <c r="H48" s="24"/>
       <c r="I48" s="25"/>
     </row>
-    <row r="49" spans="1:14" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>14</v>
       </c>
@@ -2090,7 +2082,7 @@
       <c r="H49" s="24"/>
       <c r="I49" s="25"/>
     </row>
-    <row r="50" spans="1:14" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>15</v>
       </c>
@@ -2105,7 +2097,7 @@
       <c r="H50" s="24"/>
       <c r="I50" s="25"/>
     </row>
-    <row r="51" spans="1:14" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>16</v>
       </c>
@@ -2120,7 +2112,7 @@
       <c r="H51" s="24"/>
       <c r="I51" s="25"/>
     </row>
-    <row r="52" spans="1:14" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>17</v>
       </c>
@@ -2139,7 +2131,7 @@
       <c r="M52" s="47"/>
       <c r="N52" s="47"/>
     </row>
-    <row r="53" spans="1:14" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>18</v>
       </c>
@@ -2158,7 +2150,7 @@
       <c r="M53" s="47"/>
       <c r="N53" s="47"/>
     </row>
-    <row r="54" spans="1:14" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>19</v>
       </c>
@@ -2177,7 +2169,7 @@
       <c r="M54" s="47"/>
       <c r="N54" s="47"/>
     </row>
-    <row r="55" spans="1:14" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>20</v>
       </c>
@@ -2196,7 +2188,7 @@
       <c r="M55" s="47"/>
       <c r="N55" s="47"/>
     </row>
-    <row r="56" spans="1:14" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
@@ -2211,7 +2203,7 @@
       <c r="M56" s="47"/>
       <c r="N56" s="47"/>
     </row>
-    <row r="57" spans="1:14" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -2222,37 +2214,37 @@
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
     </row>
-    <row r="58" spans="1:14" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="65" t="s">
+    <row r="58" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="66"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="67"/>
-      <c r="F58" s="65" t="s">
+      <c r="B58" s="68"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="69"/>
+      <c r="F58" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="76"/>
-    </row>
-    <row r="59" spans="1:14" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="68"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="70"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="79"/>
-    </row>
-    <row r="60" spans="1:14" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="80" t="s">
+      <c r="G58" s="84"/>
+      <c r="H58" s="84"/>
+      <c r="I58" s="85"/>
+    </row>
+    <row r="59" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="70"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="92"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="87"/>
+      <c r="I59" s="88"/>
+    </row>
+    <row r="60" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="81"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="83"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="100"/>
       <c r="F60" s="49" t="s">
         <v>8</v>
       </c>
@@ -2269,13 +2261,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="71" t="s">
+    <row r="61" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="72"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="74"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="96"/>
       <c r="F61" s="50">
         <v>1</v>
       </c>
@@ -2283,7 +2275,7 @@
       <c r="H61" s="39"/>
       <c r="I61" s="22"/>
     </row>
-    <row r="62" spans="1:14" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="56" t="s">
         <v>15</v>
       </c>
@@ -2303,7 +2295,7 @@
       <c r="H62" s="41"/>
       <c r="I62" s="25"/>
     </row>
-    <row r="63" spans="1:14" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="50">
         <v>1</v>
       </c>
@@ -2317,7 +2309,7 @@
       <c r="H63" s="41"/>
       <c r="I63" s="25"/>
     </row>
-    <row r="64" spans="1:14" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="51">
         <v>2</v>
       </c>
@@ -2331,7 +2323,7 @@
       <c r="H64" s="43"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="51">
         <v>3</v>
       </c>
@@ -2339,7 +2331,7 @@
       <c r="C65" s="35"/>
       <c r="D65" s="30"/>
     </row>
-    <row r="66" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="51">
         <v>4</v>
       </c>
@@ -2347,7 +2339,7 @@
       <c r="C66" s="35"/>
       <c r="D66" s="30"/>
     </row>
-    <row r="67" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="52" t="s">
         <v>8</v>
       </c>
@@ -2355,66 +2347,64 @@
       <c r="C67" s="37"/>
       <c r="D67" s="31"/>
     </row>
-    <row r="68" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="58"/>
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
       <c r="D68" s="59"/>
     </row>
-    <row r="69" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="65" t="s">
+    <row r="71" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="75"/>
-      <c r="C72" s="75"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="75"/>
-      <c r="F72" s="75"/>
-      <c r="G72" s="75"/>
-      <c r="H72" s="75"/>
-      <c r="I72" s="76"/>
-    </row>
-    <row r="73" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="77"/>
-      <c r="B73" s="78"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="78"/>
-      <c r="E73" s="78"/>
-      <c r="F73" s="78"/>
-      <c r="G73" s="78"/>
-      <c r="H73" s="78"/>
-      <c r="I73" s="79"/>
-    </row>
-    <row r="74" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="84"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="84"/>
+      <c r="I72" s="85"/>
+    </row>
+    <row r="73" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="86"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="87"/>
+      <c r="D73" s="87"/>
+      <c r="E73" s="87"/>
+      <c r="F73" s="87"/>
+      <c r="G73" s="87"/>
+      <c r="H73" s="87"/>
+      <c r="I73" s="88"/>
+    </row>
+    <row r="74" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="84" t="s">
+      <c r="B74" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="85"/>
-      <c r="D74" s="86"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="75"/>
       <c r="E74" s="3"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="84" t="s">
+      <c r="G74" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="85"/>
-      <c r="I74" s="86"/>
-    </row>
-    <row r="75" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H74" s="74"/>
+      <c r="I74" s="75"/>
+    </row>
+    <row r="75" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="87"/>
-      <c r="C75" s="88"/>
-      <c r="D75" s="89"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="78"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="87"/>
-      <c r="H75" s="88"/>
-      <c r="I75" s="89"/>
-    </row>
-    <row r="76" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G75" s="76"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="78"/>
+    </row>
+    <row r="76" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="5" t="s">
         <v>5</v>
@@ -2437,118 +2427,118 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="91" t="s">
+    <row r="77" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="83" t="s">
         <v>10</v>
       </c>
       <c r="B77" s="44"/>
       <c r="C77" s="45"/>
       <c r="D77" s="46"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="91" t="s">
+      <c r="F77" s="83" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="44"/>
       <c r="H77" s="45"/>
       <c r="I77" s="46"/>
     </row>
-    <row r="78" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
+    <row r="78" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="80"/>
       <c r="B78" s="23"/>
       <c r="C78" s="24"/>
       <c r="D78" s="25"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="61"/>
+      <c r="F78" s="80"/>
       <c r="G78" s="23"/>
       <c r="H78" s="24"/>
       <c r="I78" s="25"/>
     </row>
-    <row r="79" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="90"/>
+    <row r="79" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="82"/>
       <c r="B79" s="26"/>
       <c r="C79" s="27"/>
       <c r="D79" s="28"/>
       <c r="E79" s="11"/>
-      <c r="F79" s="90"/>
+      <c r="F79" s="82"/>
       <c r="G79" s="26"/>
       <c r="H79" s="27"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="60" t="s">
+    <row r="80" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="79" t="s">
         <v>11</v>
       </c>
       <c r="B80" s="44"/>
       <c r="C80" s="45"/>
       <c r="D80" s="46"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="60" t="s">
+      <c r="F80" s="79" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="44"/>
       <c r="H80" s="45"/>
       <c r="I80" s="46"/>
     </row>
-    <row r="81" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
+    <row r="81" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="80"/>
       <c r="B81" s="23"/>
       <c r="C81" s="24"/>
       <c r="D81" s="25"/>
       <c r="E81" s="11"/>
-      <c r="F81" s="61"/>
+      <c r="F81" s="80"/>
       <c r="G81" s="23"/>
       <c r="H81" s="24"/>
       <c r="I81" s="25"/>
     </row>
-    <row r="82" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="90"/>
+    <row r="82" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="82"/>
       <c r="B82" s="26"/>
       <c r="C82" s="27"/>
       <c r="D82" s="28"/>
       <c r="E82" s="11"/>
-      <c r="F82" s="90"/>
+      <c r="F82" s="82"/>
       <c r="G82" s="26"/>
       <c r="H82" s="27"/>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="60" t="s">
+    <row r="83" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="79" t="s">
         <v>12</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="21"/>
       <c r="D83" s="22"/>
       <c r="E83" s="11"/>
-      <c r="F83" s="60" t="s">
+      <c r="F83" s="79" t="s">
         <v>12</v>
       </c>
       <c r="G83" s="44"/>
       <c r="H83" s="45"/>
       <c r="I83" s="46"/>
     </row>
-    <row r="84" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
+    <row r="84" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="80"/>
       <c r="B84" s="23"/>
       <c r="C84" s="24"/>
       <c r="D84" s="25"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="61"/>
+      <c r="F84" s="80"/>
       <c r="G84" s="23"/>
       <c r="H84" s="24"/>
       <c r="I84" s="25"/>
     </row>
-    <row r="85" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="62"/>
+    <row r="85" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="81"/>
       <c r="B85" s="26"/>
       <c r="C85" s="27"/>
       <c r="D85" s="28"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="62"/>
+      <c r="F85" s="81"/>
       <c r="G85" s="26"/>
       <c r="H85" s="27"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -2559,33 +2549,33 @@
       <c r="H86" s="8"/>
       <c r="I86" s="11"/>
     </row>
-    <row r="87" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="84" t="s">
+      <c r="B87" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="85"/>
-      <c r="D87" s="86"/>
+      <c r="C87" s="74"/>
+      <c r="D87" s="75"/>
       <c r="E87" s="3"/>
       <c r="F87" s="8"/>
-      <c r="G87" s="84" t="s">
+      <c r="G87" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H87" s="85"/>
-      <c r="I87" s="86"/>
-    </row>
-    <row r="88" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H87" s="74"/>
+      <c r="I87" s="75"/>
+    </row>
+    <row r="88" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
-      <c r="B88" s="87"/>
-      <c r="C88" s="88"/>
-      <c r="D88" s="89"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="78"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
-      <c r="G88" s="87"/>
-      <c r="H88" s="88"/>
-      <c r="I88" s="89"/>
-    </row>
-    <row r="89" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G88" s="76"/>
+      <c r="H88" s="77"/>
+      <c r="I88" s="78"/>
+    </row>
+    <row r="89" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="16" t="s">
         <v>5</v>
@@ -2608,250 +2598,2640 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="91" t="s">
+    <row r="90" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="83" t="s">
         <v>10</v>
       </c>
       <c r="B90" s="44"/>
       <c r="C90" s="45"/>
       <c r="D90" s="46"/>
       <c r="E90" s="11"/>
-      <c r="F90" s="91" t="s">
+      <c r="F90" s="83" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="44"/>
       <c r="H90" s="45"/>
       <c r="I90" s="46"/>
     </row>
-    <row r="91" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="61"/>
+    <row r="91" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="80"/>
       <c r="B91" s="23"/>
       <c r="C91" s="24"/>
       <c r="D91" s="25"/>
       <c r="E91" s="11"/>
-      <c r="F91" s="61"/>
+      <c r="F91" s="80"/>
       <c r="G91" s="23"/>
       <c r="H91" s="24"/>
       <c r="I91" s="25"/>
     </row>
-    <row r="92" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="90"/>
+    <row r="92" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="82"/>
       <c r="B92" s="26"/>
       <c r="C92" s="27"/>
       <c r="D92" s="28"/>
       <c r="E92" s="11"/>
-      <c r="F92" s="90"/>
+      <c r="F92" s="82"/>
       <c r="G92" s="26"/>
       <c r="H92" s="27"/>
       <c r="I92" s="28"/>
     </row>
-    <row r="93" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="60" t="s">
+    <row r="93" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="79" t="s">
         <v>11</v>
       </c>
       <c r="B93" s="44"/>
       <c r="C93" s="45"/>
       <c r="D93" s="46"/>
       <c r="E93" s="11"/>
-      <c r="F93" s="60" t="s">
+      <c r="F93" s="79" t="s">
         <v>11</v>
       </c>
       <c r="G93" s="44"/>
       <c r="H93" s="45"/>
       <c r="I93" s="46"/>
     </row>
-    <row r="94" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
+    <row r="94" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="80"/>
       <c r="B94" s="23"/>
       <c r="C94" s="24"/>
       <c r="D94" s="25"/>
       <c r="E94" s="11"/>
-      <c r="F94" s="61"/>
+      <c r="F94" s="80"/>
       <c r="G94" s="23"/>
       <c r="H94" s="24"/>
       <c r="I94" s="25"/>
     </row>
-    <row r="95" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="90"/>
+    <row r="95" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="82"/>
       <c r="B95" s="26"/>
       <c r="C95" s="27"/>
       <c r="D95" s="28"/>
       <c r="E95" s="11"/>
-      <c r="F95" s="90"/>
+      <c r="F95" s="82"/>
       <c r="G95" s="26"/>
       <c r="H95" s="27"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="60" t="s">
+    <row r="96" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="79" t="s">
         <v>12</v>
       </c>
       <c r="B96" s="44"/>
       <c r="C96" s="45"/>
       <c r="D96" s="46"/>
       <c r="E96" s="11"/>
-      <c r="F96" s="60" t="s">
+      <c r="F96" s="79" t="s">
         <v>12</v>
       </c>
       <c r="G96" s="44"/>
       <c r="H96" s="45"/>
       <c r="I96" s="46"/>
     </row>
-    <row r="97" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
+    <row r="97" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="80"/>
       <c r="B97" s="23"/>
       <c r="C97" s="24"/>
       <c r="D97" s="25"/>
       <c r="E97" s="11"/>
-      <c r="F97" s="61"/>
+      <c r="F97" s="80"/>
       <c r="G97" s="23"/>
       <c r="H97" s="24"/>
       <c r="I97" s="25"/>
     </row>
-    <row r="98" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="62"/>
+    <row r="98" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="81"/>
       <c r="B98" s="26"/>
       <c r="C98" s="27"/>
       <c r="D98" s="28"/>
       <c r="E98" s="19"/>
-      <c r="F98" s="62"/>
+      <c r="F98" s="81"/>
       <c r="G98" s="26"/>
       <c r="H98" s="27"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="65" t="s">
+    <row r="99" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B100" s="66"/>
-      <c r="C100" s="66"/>
-      <c r="D100" s="67"/>
-    </row>
-    <row r="101" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="68"/>
-      <c r="B101" s="94"/>
-      <c r="C101" s="94"/>
-      <c r="D101" s="95"/>
-    </row>
-    <row r="102" spans="1:9" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="68"/>
+      <c r="C100" s="68"/>
+      <c r="D100" s="69"/>
+    </row>
+    <row r="101" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="70"/>
+      <c r="B101" s="71"/>
+      <c r="C101" s="71"/>
+      <c r="D101" s="72"/>
+    </row>
+    <row r="102" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="49"/>
-      <c r="B102" s="96" t="s">
+      <c r="B102" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="97" t="s">
+      <c r="C102" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="98" t="s">
+      <c r="D102" s="62" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="56">
         <v>1</v>
       </c>
       <c r="B103" s="103"/>
-      <c r="C103" s="100"/>
-      <c r="D103" s="101"/>
-    </row>
-    <row r="104" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="64"/>
+      <c r="D103" s="65"/>
+    </row>
+    <row r="104" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="56">
         <v>2</v>
       </c>
       <c r="B104" s="104"/>
-      <c r="C104" s="99"/>
-      <c r="D104" s="102"/>
-    </row>
-    <row r="105" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C104" s="63"/>
+      <c r="D104" s="66"/>
+    </row>
+    <row r="105" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="56">
         <v>3</v>
       </c>
       <c r="B105" s="104"/>
-      <c r="C105" s="99"/>
-      <c r="D105" s="102"/>
-    </row>
-    <row r="106" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="63"/>
+      <c r="D105" s="66"/>
+    </row>
+    <row r="106" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="56">
         <v>4</v>
       </c>
       <c r="B106" s="104"/>
-      <c r="C106" s="99"/>
-      <c r="D106" s="102"/>
-    </row>
-    <row r="107" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C106" s="63"/>
+      <c r="D106" s="66"/>
+    </row>
+    <row r="107" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="56">
         <v>5</v>
       </c>
       <c r="B107" s="104"/>
-      <c r="C107" s="99"/>
-      <c r="D107" s="102"/>
-    </row>
-    <row r="108" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C107" s="63"/>
+      <c r="D107" s="66"/>
+    </row>
+    <row r="108" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="56">
         <v>6</v>
       </c>
       <c r="B108" s="104"/>
-      <c r="C108" s="99"/>
-      <c r="D108" s="102"/>
-    </row>
-    <row r="109" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="63"/>
+      <c r="D108" s="66"/>
+    </row>
+    <row r="109" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="56">
         <v>7</v>
       </c>
       <c r="B109" s="104"/>
-      <c r="C109" s="99"/>
-      <c r="D109" s="102"/>
-    </row>
-    <row r="110" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C109" s="63"/>
+      <c r="D109" s="66"/>
+    </row>
+    <row r="110" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="56">
         <v>8</v>
       </c>
       <c r="B110" s="104"/>
-      <c r="C110" s="99"/>
-      <c r="D110" s="102"/>
-    </row>
-    <row r="111" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C110" s="63"/>
+      <c r="D110" s="66"/>
+    </row>
+    <row r="111" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="51">
         <v>9</v>
       </c>
-      <c r="B111" s="34"/>
+      <c r="B111" s="105"/>
       <c r="C111" s="35"/>
       <c r="D111" s="30"/>
     </row>
-    <row r="112" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="51">
         <v>10</v>
       </c>
-      <c r="B112" s="34"/>
+      <c r="B112" s="105"/>
       <c r="C112" s="35"/>
       <c r="D112" s="30"/>
     </row>
-    <row r="113" spans="1:4" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="51">
         <v>11</v>
       </c>
-      <c r="B113" s="34"/>
+      <c r="B113" s="105"/>
       <c r="C113" s="35"/>
       <c r="D113" s="30"/>
     </row>
-    <row r="114" spans="1:4" ht="22.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="51">
         <v>12</v>
       </c>
-      <c r="B114" s="34"/>
+      <c r="B114" s="105"/>
       <c r="C114" s="35"/>
       <c r="D114" s="30"/>
     </row>
-    <row r="115" spans="1:4" ht="22.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="52">
+    <row r="115" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="51">
         <v>13</v>
       </c>
-      <c r="B115" s="36"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="31"/>
+      <c r="B115" s="105"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="30"/>
+    </row>
+    <row r="116" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="51">
+        <v>14</v>
+      </c>
+      <c r="B116" s="105"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="30"/>
+    </row>
+    <row r="117" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="51">
+        <v>15</v>
+      </c>
+      <c r="B117" s="105"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="30"/>
+    </row>
+    <row r="118" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="51">
+        <v>16</v>
+      </c>
+      <c r="B118" s="105"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="30"/>
+    </row>
+    <row r="119" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="51">
+        <v>17</v>
+      </c>
+      <c r="B119" s="105"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="30"/>
+    </row>
+    <row r="120" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="51">
+        <v>18</v>
+      </c>
+      <c r="B120" s="105"/>
+      <c r="C120" s="35"/>
+      <c r="D120" s="30"/>
+    </row>
+    <row r="121" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="51">
+        <v>19</v>
+      </c>
+      <c r="B121" s="105"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="30"/>
+    </row>
+    <row r="122" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="51">
+        <v>20</v>
+      </c>
+      <c r="B122" s="105"/>
+      <c r="C122" s="35"/>
+      <c r="D122" s="30"/>
+    </row>
+    <row r="123" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="51">
+        <v>21</v>
+      </c>
+      <c r="B123" s="105"/>
+      <c r="C123" s="35"/>
+      <c r="D123" s="30"/>
+    </row>
+    <row r="124" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="51">
+        <v>22</v>
+      </c>
+      <c r="B124" s="105"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="30"/>
+    </row>
+    <row r="125" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="51">
+        <v>23</v>
+      </c>
+      <c r="B125" s="105"/>
+      <c r="C125" s="35"/>
+      <c r="D125" s="30"/>
+    </row>
+    <row r="126" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="51">
+        <v>24</v>
+      </c>
+      <c r="B126" s="105"/>
+      <c r="C126" s="35"/>
+      <c r="D126" s="30"/>
+    </row>
+    <row r="127" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="51">
+        <v>25</v>
+      </c>
+      <c r="B127" s="105"/>
+      <c r="C127" s="35"/>
+      <c r="D127" s="30"/>
+    </row>
+    <row r="128" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="51">
+        <v>26</v>
+      </c>
+      <c r="B128" s="105"/>
+      <c r="C128" s="35"/>
+      <c r="D128" s="30"/>
+    </row>
+    <row r="129" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="51">
+        <v>27</v>
+      </c>
+      <c r="B129" s="105"/>
+      <c r="C129" s="35"/>
+      <c r="D129" s="30"/>
+    </row>
+    <row r="130" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="51">
+        <v>28</v>
+      </c>
+      <c r="B130" s="105"/>
+      <c r="C130" s="35"/>
+      <c r="D130" s="30"/>
+    </row>
+    <row r="131" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="51">
+        <v>29</v>
+      </c>
+      <c r="B131" s="105"/>
+      <c r="C131" s="35"/>
+      <c r="D131" s="30"/>
+    </row>
+    <row r="132" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="51">
+        <v>30</v>
+      </c>
+      <c r="B132" s="105"/>
+      <c r="C132" s="35"/>
+      <c r="D132" s="30"/>
+    </row>
+    <row r="133" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="51">
+        <v>31</v>
+      </c>
+      <c r="B133" s="105"/>
+      <c r="C133" s="35"/>
+      <c r="D133" s="30"/>
+    </row>
+    <row r="134" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="51">
+        <v>32</v>
+      </c>
+      <c r="B134" s="105"/>
+      <c r="C134" s="35"/>
+      <c r="D134" s="30"/>
+    </row>
+    <row r="135" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="51">
+        <v>33</v>
+      </c>
+      <c r="B135" s="105"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="30"/>
+    </row>
+    <row r="136" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="51">
+        <v>34</v>
+      </c>
+      <c r="B136" s="105"/>
+      <c r="C136" s="35"/>
+      <c r="D136" s="30"/>
+    </row>
+    <row r="137" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="51">
+        <v>35</v>
+      </c>
+      <c r="B137" s="105"/>
+      <c r="C137" s="35"/>
+      <c r="D137" s="30"/>
+    </row>
+    <row r="138" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="51">
+        <v>36</v>
+      </c>
+      <c r="B138" s="105"/>
+      <c r="C138" s="35"/>
+      <c r="D138" s="30"/>
+    </row>
+    <row r="139" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="51">
+        <v>37</v>
+      </c>
+      <c r="B139" s="105"/>
+      <c r="C139" s="35"/>
+      <c r="D139" s="30"/>
+    </row>
+    <row r="140" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="51">
+        <v>38</v>
+      </c>
+      <c r="B140" s="105"/>
+      <c r="C140" s="35"/>
+      <c r="D140" s="30"/>
+    </row>
+    <row r="141" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="51">
+        <v>39</v>
+      </c>
+      <c r="B141" s="105"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="30"/>
+    </row>
+    <row r="142" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="51">
+        <v>40</v>
+      </c>
+      <c r="B142" s="105"/>
+      <c r="C142" s="35"/>
+      <c r="D142" s="30"/>
+    </row>
+    <row r="143" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="51">
+        <v>41</v>
+      </c>
+      <c r="B143" s="105"/>
+      <c r="C143" s="35"/>
+      <c r="D143" s="30"/>
+    </row>
+    <row r="144" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="51">
+        <v>42</v>
+      </c>
+      <c r="B144" s="105"/>
+      <c r="C144" s="35"/>
+      <c r="D144" s="30"/>
+    </row>
+    <row r="145" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="51">
+        <v>43</v>
+      </c>
+      <c r="B145" s="105"/>
+      <c r="C145" s="35"/>
+      <c r="D145" s="30"/>
+    </row>
+    <row r="146" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="51">
+        <v>44</v>
+      </c>
+      <c r="B146" s="105"/>
+      <c r="C146" s="35"/>
+      <c r="D146" s="30"/>
+    </row>
+    <row r="147" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="51">
+        <v>45</v>
+      </c>
+      <c r="B147" s="105"/>
+      <c r="C147" s="35"/>
+      <c r="D147" s="30"/>
+    </row>
+    <row r="148" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="51">
+        <v>46</v>
+      </c>
+      <c r="B148" s="105"/>
+      <c r="C148" s="35"/>
+      <c r="D148" s="30"/>
+    </row>
+    <row r="149" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="51">
+        <v>47</v>
+      </c>
+      <c r="B149" s="105"/>
+      <c r="C149" s="35"/>
+      <c r="D149" s="30"/>
+    </row>
+    <row r="150" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="51">
+        <v>48</v>
+      </c>
+      <c r="B150" s="105"/>
+      <c r="C150" s="35"/>
+      <c r="D150" s="30"/>
+    </row>
+    <row r="151" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="51">
+        <v>49</v>
+      </c>
+      <c r="B151" s="105"/>
+      <c r="C151" s="35"/>
+      <c r="D151" s="30"/>
+    </row>
+    <row r="152" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="51">
+        <v>50</v>
+      </c>
+      <c r="B152" s="105"/>
+      <c r="C152" s="35"/>
+      <c r="D152" s="30"/>
+    </row>
+    <row r="153" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="51">
+        <v>51</v>
+      </c>
+      <c r="B153" s="105"/>
+      <c r="C153" s="35"/>
+      <c r="D153" s="30"/>
+    </row>
+    <row r="154" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="51">
+        <v>52</v>
+      </c>
+      <c r="B154" s="105"/>
+      <c r="C154" s="35"/>
+      <c r="D154" s="30"/>
+    </row>
+    <row r="155" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="51">
+        <v>53</v>
+      </c>
+      <c r="B155" s="105"/>
+      <c r="C155" s="35"/>
+      <c r="D155" s="30"/>
+    </row>
+    <row r="156" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="51">
+        <v>54</v>
+      </c>
+      <c r="B156" s="105"/>
+      <c r="C156" s="35"/>
+      <c r="D156" s="30"/>
+    </row>
+    <row r="157" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="51">
+        <v>55</v>
+      </c>
+      <c r="B157" s="105"/>
+      <c r="C157" s="35"/>
+      <c r="D157" s="30"/>
+    </row>
+    <row r="158" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="51">
+        <v>56</v>
+      </c>
+      <c r="B158" s="105"/>
+      <c r="C158" s="35"/>
+      <c r="D158" s="30"/>
+    </row>
+    <row r="159" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="51">
+        <v>57</v>
+      </c>
+      <c r="B159" s="105"/>
+      <c r="C159" s="35"/>
+      <c r="D159" s="30"/>
+    </row>
+    <row r="160" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="51">
+        <v>58</v>
+      </c>
+      <c r="B160" s="105"/>
+      <c r="C160" s="35"/>
+      <c r="D160" s="30"/>
+    </row>
+    <row r="161" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="51">
+        <v>59</v>
+      </c>
+      <c r="B161" s="105"/>
+      <c r="C161" s="35"/>
+      <c r="D161" s="30"/>
+    </row>
+    <row r="162" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="51">
+        <v>60</v>
+      </c>
+      <c r="B162" s="105"/>
+      <c r="C162" s="35"/>
+      <c r="D162" s="30"/>
+    </row>
+    <row r="163" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="51">
+        <v>61</v>
+      </c>
+      <c r="B163" s="105"/>
+      <c r="C163" s="35"/>
+      <c r="D163" s="30"/>
+    </row>
+    <row r="164" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="51">
+        <v>62</v>
+      </c>
+      <c r="B164" s="105"/>
+      <c r="C164" s="35"/>
+      <c r="D164" s="30"/>
+    </row>
+    <row r="165" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="51">
+        <v>63</v>
+      </c>
+      <c r="B165" s="105"/>
+      <c r="C165" s="35"/>
+      <c r="D165" s="30"/>
+    </row>
+    <row r="166" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="51">
+        <v>64</v>
+      </c>
+      <c r="B166" s="105"/>
+      <c r="C166" s="35"/>
+      <c r="D166" s="30"/>
+    </row>
+    <row r="167" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="51">
+        <v>65</v>
+      </c>
+      <c r="B167" s="105"/>
+      <c r="C167" s="35"/>
+      <c r="D167" s="30"/>
+    </row>
+    <row r="168" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="51">
+        <v>66</v>
+      </c>
+      <c r="B168" s="105"/>
+      <c r="C168" s="35"/>
+      <c r="D168" s="30"/>
+    </row>
+    <row r="169" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="51">
+        <v>67</v>
+      </c>
+      <c r="B169" s="105"/>
+      <c r="C169" s="35"/>
+      <c r="D169" s="30"/>
+    </row>
+    <row r="170" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="51">
+        <v>68</v>
+      </c>
+      <c r="B170" s="105"/>
+      <c r="C170" s="35"/>
+      <c r="D170" s="30"/>
+    </row>
+    <row r="171" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="51">
+        <v>69</v>
+      </c>
+      <c r="B171" s="105"/>
+      <c r="C171" s="35"/>
+      <c r="D171" s="30"/>
+    </row>
+    <row r="172" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="51">
+        <v>70</v>
+      </c>
+      <c r="B172" s="105"/>
+      <c r="C172" s="35"/>
+      <c r="D172" s="30"/>
+    </row>
+    <row r="173" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="51">
+        <v>71</v>
+      </c>
+      <c r="B173" s="105"/>
+      <c r="C173" s="35"/>
+      <c r="D173" s="30"/>
+    </row>
+    <row r="174" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="51">
+        <v>72</v>
+      </c>
+      <c r="B174" s="105"/>
+      <c r="C174" s="35"/>
+      <c r="D174" s="30"/>
+    </row>
+    <row r="175" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="51">
+        <v>73</v>
+      </c>
+      <c r="B175" s="105"/>
+      <c r="C175" s="35"/>
+      <c r="D175" s="30"/>
+    </row>
+    <row r="176" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="51">
+        <v>74</v>
+      </c>
+      <c r="B176" s="105"/>
+      <c r="C176" s="35"/>
+      <c r="D176" s="30"/>
+    </row>
+    <row r="177" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="51">
+        <v>75</v>
+      </c>
+      <c r="B177" s="105"/>
+      <c r="C177" s="35"/>
+      <c r="D177" s="30"/>
+    </row>
+    <row r="178" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="51">
+        <v>76</v>
+      </c>
+      <c r="B178" s="105"/>
+      <c r="C178" s="35"/>
+      <c r="D178" s="30"/>
+    </row>
+    <row r="179" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="51">
+        <v>77</v>
+      </c>
+      <c r="B179" s="105"/>
+      <c r="C179" s="35"/>
+      <c r="D179" s="30"/>
+    </row>
+    <row r="180" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="51">
+        <v>78</v>
+      </c>
+      <c r="B180" s="105"/>
+      <c r="C180" s="35"/>
+      <c r="D180" s="30"/>
+    </row>
+    <row r="181" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="51">
+        <v>79</v>
+      </c>
+      <c r="B181" s="105"/>
+      <c r="C181" s="35"/>
+      <c r="D181" s="30"/>
+    </row>
+    <row r="182" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="51">
+        <v>80</v>
+      </c>
+      <c r="B182" s="105"/>
+      <c r="C182" s="35"/>
+      <c r="D182" s="30"/>
+    </row>
+    <row r="183" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="51">
+        <v>81</v>
+      </c>
+      <c r="B183" s="105"/>
+      <c r="C183" s="35"/>
+      <c r="D183" s="30"/>
+    </row>
+    <row r="184" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="51">
+        <v>82</v>
+      </c>
+      <c r="B184" s="105"/>
+      <c r="C184" s="35"/>
+      <c r="D184" s="30"/>
+    </row>
+    <row r="185" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="51">
+        <v>83</v>
+      </c>
+      <c r="B185" s="105"/>
+      <c r="C185" s="35"/>
+      <c r="D185" s="30"/>
+    </row>
+    <row r="186" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="51">
+        <v>84</v>
+      </c>
+      <c r="B186" s="105"/>
+      <c r="C186" s="35"/>
+      <c r="D186" s="30"/>
+    </row>
+    <row r="187" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="51">
+        <v>85</v>
+      </c>
+      <c r="B187" s="105"/>
+      <c r="C187" s="35"/>
+      <c r="D187" s="30"/>
+    </row>
+    <row r="188" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="51">
+        <v>86</v>
+      </c>
+      <c r="B188" s="105"/>
+      <c r="C188" s="35"/>
+      <c r="D188" s="30"/>
+    </row>
+    <row r="189" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="51">
+        <v>87</v>
+      </c>
+      <c r="B189" s="105"/>
+      <c r="C189" s="35"/>
+      <c r="D189" s="30"/>
+    </row>
+    <row r="190" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="51">
+        <v>88</v>
+      </c>
+      <c r="B190" s="105"/>
+      <c r="C190" s="35"/>
+      <c r="D190" s="30"/>
+    </row>
+    <row r="191" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="51">
+        <v>89</v>
+      </c>
+      <c r="B191" s="105"/>
+      <c r="C191" s="35"/>
+      <c r="D191" s="30"/>
+    </row>
+    <row r="192" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="51">
+        <v>90</v>
+      </c>
+      <c r="B192" s="105"/>
+      <c r="C192" s="35"/>
+      <c r="D192" s="30"/>
+    </row>
+    <row r="193" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="51">
+        <v>91</v>
+      </c>
+      <c r="B193" s="105"/>
+      <c r="C193" s="35"/>
+      <c r="D193" s="30"/>
+    </row>
+    <row r="194" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="51">
+        <v>92</v>
+      </c>
+      <c r="B194" s="105"/>
+      <c r="C194" s="35"/>
+      <c r="D194" s="30"/>
+    </row>
+    <row r="195" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="51">
+        <v>93</v>
+      </c>
+      <c r="B195" s="105"/>
+      <c r="C195" s="35"/>
+      <c r="D195" s="30"/>
+    </row>
+    <row r="196" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="51">
+        <v>94</v>
+      </c>
+      <c r="B196" s="105"/>
+      <c r="C196" s="35"/>
+      <c r="D196" s="30"/>
+    </row>
+    <row r="197" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="51">
+        <v>95</v>
+      </c>
+      <c r="B197" s="105"/>
+      <c r="C197" s="35"/>
+      <c r="D197" s="30"/>
+    </row>
+    <row r="198" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="51">
+        <v>96</v>
+      </c>
+      <c r="B198" s="105"/>
+      <c r="C198" s="35"/>
+      <c r="D198" s="30"/>
+    </row>
+    <row r="199" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="51">
+        <v>97</v>
+      </c>
+      <c r="B199" s="105"/>
+      <c r="C199" s="35"/>
+      <c r="D199" s="30"/>
+    </row>
+    <row r="200" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="51">
+        <v>98</v>
+      </c>
+      <c r="B200" s="105"/>
+      <c r="C200" s="35"/>
+      <c r="D200" s="30"/>
+    </row>
+    <row r="201" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="51">
+        <v>99</v>
+      </c>
+      <c r="B201" s="105"/>
+      <c r="C201" s="35"/>
+      <c r="D201" s="30"/>
+    </row>
+    <row r="202" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="51">
+        <v>100</v>
+      </c>
+      <c r="B202" s="105"/>
+      <c r="C202" s="35"/>
+      <c r="D202" s="30"/>
+    </row>
+    <row r="203" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="51">
+        <v>101</v>
+      </c>
+      <c r="B203" s="105"/>
+      <c r="C203" s="35"/>
+      <c r="D203" s="30"/>
+    </row>
+    <row r="204" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="51">
+        <v>102</v>
+      </c>
+      <c r="B204" s="105"/>
+      <c r="C204" s="35"/>
+      <c r="D204" s="30"/>
+    </row>
+    <row r="205" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="51">
+        <v>103</v>
+      </c>
+      <c r="B205" s="105"/>
+      <c r="C205" s="35"/>
+      <c r="D205" s="30"/>
+    </row>
+    <row r="206" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="51">
+        <v>104</v>
+      </c>
+      <c r="B206" s="105"/>
+      <c r="C206" s="35"/>
+      <c r="D206" s="30"/>
+    </row>
+    <row r="207" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="51">
+        <v>105</v>
+      </c>
+      <c r="B207" s="105"/>
+      <c r="C207" s="35"/>
+      <c r="D207" s="30"/>
+    </row>
+    <row r="208" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="51">
+        <v>106</v>
+      </c>
+      <c r="B208" s="105"/>
+      <c r="C208" s="35"/>
+      <c r="D208" s="30"/>
+    </row>
+    <row r="209" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="51">
+        <v>107</v>
+      </c>
+      <c r="B209" s="105"/>
+      <c r="C209" s="35"/>
+      <c r="D209" s="30"/>
+    </row>
+    <row r="210" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="51">
+        <v>108</v>
+      </c>
+      <c r="B210" s="105"/>
+      <c r="C210" s="35"/>
+      <c r="D210" s="30"/>
+    </row>
+    <row r="211" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="51">
+        <v>109</v>
+      </c>
+      <c r="B211" s="105"/>
+      <c r="C211" s="35"/>
+      <c r="D211" s="30"/>
+    </row>
+    <row r="212" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="51">
+        <v>110</v>
+      </c>
+      <c r="B212" s="105"/>
+      <c r="C212" s="35"/>
+      <c r="D212" s="30"/>
+    </row>
+    <row r="213" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="51">
+        <v>111</v>
+      </c>
+      <c r="B213" s="105"/>
+      <c r="C213" s="35"/>
+      <c r="D213" s="30"/>
+    </row>
+    <row r="214" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="51">
+        <v>112</v>
+      </c>
+      <c r="B214" s="105"/>
+      <c r="C214" s="35"/>
+      <c r="D214" s="30"/>
+    </row>
+    <row r="215" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="51">
+        <v>113</v>
+      </c>
+      <c r="B215" s="105"/>
+      <c r="C215" s="35"/>
+      <c r="D215" s="30"/>
+    </row>
+    <row r="216" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="51">
+        <v>114</v>
+      </c>
+      <c r="B216" s="105"/>
+      <c r="C216" s="35"/>
+      <c r="D216" s="30"/>
+    </row>
+    <row r="217" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="51">
+        <v>115</v>
+      </c>
+      <c r="B217" s="105"/>
+      <c r="C217" s="35"/>
+      <c r="D217" s="30"/>
+    </row>
+    <row r="218" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="51">
+        <v>116</v>
+      </c>
+      <c r="B218" s="105"/>
+      <c r="C218" s="35"/>
+      <c r="D218" s="30"/>
+    </row>
+    <row r="219" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="51">
+        <v>117</v>
+      </c>
+      <c r="B219" s="105"/>
+      <c r="C219" s="35"/>
+      <c r="D219" s="30"/>
+    </row>
+    <row r="220" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="51">
+        <v>118</v>
+      </c>
+      <c r="B220" s="105"/>
+      <c r="C220" s="35"/>
+      <c r="D220" s="30"/>
+    </row>
+    <row r="221" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="51">
+        <v>119</v>
+      </c>
+      <c r="B221" s="105"/>
+      <c r="C221" s="35"/>
+      <c r="D221" s="30"/>
+    </row>
+    <row r="222" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="51">
+        <v>120</v>
+      </c>
+      <c r="B222" s="105"/>
+      <c r="C222" s="35"/>
+      <c r="D222" s="30"/>
+    </row>
+    <row r="223" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="51">
+        <v>121</v>
+      </c>
+      <c r="B223" s="105"/>
+      <c r="C223" s="35"/>
+      <c r="D223" s="30"/>
+    </row>
+    <row r="224" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="51">
+        <v>122</v>
+      </c>
+      <c r="B224" s="105"/>
+      <c r="C224" s="35"/>
+      <c r="D224" s="30"/>
+    </row>
+    <row r="225" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="51">
+        <v>123</v>
+      </c>
+      <c r="B225" s="105"/>
+      <c r="C225" s="35"/>
+      <c r="D225" s="30"/>
+    </row>
+    <row r="226" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="51">
+        <v>124</v>
+      </c>
+      <c r="B226" s="105"/>
+      <c r="C226" s="35"/>
+      <c r="D226" s="30"/>
+    </row>
+    <row r="227" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="51">
+        <v>125</v>
+      </c>
+      <c r="B227" s="105"/>
+      <c r="C227" s="35"/>
+      <c r="D227" s="30"/>
+    </row>
+    <row r="228" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="51">
+        <v>126</v>
+      </c>
+      <c r="B228" s="105"/>
+      <c r="C228" s="35"/>
+      <c r="D228" s="30"/>
+    </row>
+    <row r="229" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="51">
+        <v>127</v>
+      </c>
+      <c r="B229" s="105"/>
+      <c r="C229" s="35"/>
+      <c r="D229" s="30"/>
+    </row>
+    <row r="230" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="51">
+        <v>128</v>
+      </c>
+      <c r="B230" s="105"/>
+      <c r="C230" s="35"/>
+      <c r="D230" s="30"/>
+    </row>
+    <row r="231" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="51">
+        <v>129</v>
+      </c>
+      <c r="B231" s="105"/>
+      <c r="C231" s="35"/>
+      <c r="D231" s="30"/>
+    </row>
+    <row r="232" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="51">
+        <v>130</v>
+      </c>
+      <c r="B232" s="105"/>
+      <c r="C232" s="35"/>
+      <c r="D232" s="30"/>
+    </row>
+    <row r="233" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="51">
+        <v>131</v>
+      </c>
+      <c r="B233" s="105"/>
+      <c r="C233" s="35"/>
+      <c r="D233" s="30"/>
+    </row>
+    <row r="234" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="51">
+        <v>132</v>
+      </c>
+      <c r="B234" s="105"/>
+      <c r="C234" s="35"/>
+      <c r="D234" s="30"/>
+    </row>
+    <row r="235" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="51">
+        <v>133</v>
+      </c>
+      <c r="B235" s="105"/>
+      <c r="C235" s="35"/>
+      <c r="D235" s="30"/>
+    </row>
+    <row r="236" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="51">
+        <v>134</v>
+      </c>
+      <c r="B236" s="105"/>
+      <c r="C236" s="35"/>
+      <c r="D236" s="30"/>
+    </row>
+    <row r="237" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="51">
+        <v>135</v>
+      </c>
+      <c r="B237" s="105"/>
+      <c r="C237" s="35"/>
+      <c r="D237" s="30"/>
+    </row>
+    <row r="238" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="51">
+        <v>136</v>
+      </c>
+      <c r="B238" s="105"/>
+      <c r="C238" s="35"/>
+      <c r="D238" s="30"/>
+    </row>
+    <row r="239" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="51">
+        <v>137</v>
+      </c>
+      <c r="B239" s="105"/>
+      <c r="C239" s="35"/>
+      <c r="D239" s="30"/>
+    </row>
+    <row r="240" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="51">
+        <v>138</v>
+      </c>
+      <c r="B240" s="105"/>
+      <c r="C240" s="35"/>
+      <c r="D240" s="30"/>
+    </row>
+    <row r="241" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="51">
+        <v>139</v>
+      </c>
+      <c r="B241" s="105"/>
+      <c r="C241" s="35"/>
+      <c r="D241" s="30"/>
+    </row>
+    <row r="242" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="51">
+        <v>140</v>
+      </c>
+      <c r="B242" s="105"/>
+      <c r="C242" s="35"/>
+      <c r="D242" s="30"/>
+    </row>
+    <row r="243" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="51">
+        <v>141</v>
+      </c>
+      <c r="B243" s="105"/>
+      <c r="C243" s="35"/>
+      <c r="D243" s="30"/>
+    </row>
+    <row r="244" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="51">
+        <v>142</v>
+      </c>
+      <c r="B244" s="105"/>
+      <c r="C244" s="35"/>
+      <c r="D244" s="30"/>
+    </row>
+    <row r="245" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="51">
+        <v>143</v>
+      </c>
+      <c r="B245" s="105"/>
+      <c r="C245" s="35"/>
+      <c r="D245" s="30"/>
+    </row>
+    <row r="246" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="51">
+        <v>144</v>
+      </c>
+      <c r="B246" s="105"/>
+      <c r="C246" s="35"/>
+      <c r="D246" s="30"/>
+    </row>
+    <row r="247" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="51">
+        <v>145</v>
+      </c>
+      <c r="B247" s="105"/>
+      <c r="C247" s="35"/>
+      <c r="D247" s="30"/>
+    </row>
+    <row r="248" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="51">
+        <v>146</v>
+      </c>
+      <c r="B248" s="105"/>
+      <c r="C248" s="35"/>
+      <c r="D248" s="30"/>
+    </row>
+    <row r="249" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="51">
+        <v>147</v>
+      </c>
+      <c r="B249" s="105"/>
+      <c r="C249" s="35"/>
+      <c r="D249" s="30"/>
+    </row>
+    <row r="250" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="51">
+        <v>148</v>
+      </c>
+      <c r="B250" s="105"/>
+      <c r="C250" s="35"/>
+      <c r="D250" s="30"/>
+    </row>
+    <row r="251" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="51">
+        <v>149</v>
+      </c>
+      <c r="B251" s="105"/>
+      <c r="C251" s="35"/>
+      <c r="D251" s="30"/>
+    </row>
+    <row r="252" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="51">
+        <v>150</v>
+      </c>
+      <c r="B252" s="105"/>
+      <c r="C252" s="35"/>
+      <c r="D252" s="30"/>
+    </row>
+    <row r="253" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="51">
+        <v>151</v>
+      </c>
+      <c r="B253" s="105"/>
+      <c r="C253" s="35"/>
+      <c r="D253" s="30"/>
+    </row>
+    <row r="254" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="51">
+        <v>152</v>
+      </c>
+      <c r="B254" s="105"/>
+      <c r="C254" s="35"/>
+      <c r="D254" s="30"/>
+    </row>
+    <row r="255" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="51">
+        <v>153</v>
+      </c>
+      <c r="B255" s="105"/>
+      <c r="C255" s="35"/>
+      <c r="D255" s="30"/>
+    </row>
+    <row r="256" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="51">
+        <v>154</v>
+      </c>
+      <c r="B256" s="105"/>
+      <c r="C256" s="35"/>
+      <c r="D256" s="30"/>
+    </row>
+    <row r="257" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="51">
+        <v>155</v>
+      </c>
+      <c r="B257" s="105"/>
+      <c r="C257" s="35"/>
+      <c r="D257" s="30"/>
+    </row>
+    <row r="258" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="51">
+        <v>156</v>
+      </c>
+      <c r="B258" s="105"/>
+      <c r="C258" s="35"/>
+      <c r="D258" s="30"/>
+    </row>
+    <row r="259" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="51">
+        <v>157</v>
+      </c>
+      <c r="B259" s="105"/>
+      <c r="C259" s="35"/>
+      <c r="D259" s="30"/>
+    </row>
+    <row r="260" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="51">
+        <v>158</v>
+      </c>
+      <c r="B260" s="105"/>
+      <c r="C260" s="35"/>
+      <c r="D260" s="30"/>
+    </row>
+    <row r="261" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="51">
+        <v>159</v>
+      </c>
+      <c r="B261" s="105"/>
+      <c r="C261" s="35"/>
+      <c r="D261" s="30"/>
+    </row>
+    <row r="262" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="51">
+        <v>160</v>
+      </c>
+      <c r="B262" s="105"/>
+      <c r="C262" s="35"/>
+      <c r="D262" s="30"/>
+    </row>
+    <row r="263" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="51">
+        <v>161</v>
+      </c>
+      <c r="B263" s="105"/>
+      <c r="C263" s="35"/>
+      <c r="D263" s="30"/>
+    </row>
+    <row r="264" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="51">
+        <v>162</v>
+      </c>
+      <c r="B264" s="105"/>
+      <c r="C264" s="35"/>
+      <c r="D264" s="30"/>
+    </row>
+    <row r="265" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="51">
+        <v>163</v>
+      </c>
+      <c r="B265" s="105"/>
+      <c r="C265" s="35"/>
+      <c r="D265" s="30"/>
+    </row>
+    <row r="266" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="51">
+        <v>164</v>
+      </c>
+      <c r="B266" s="105"/>
+      <c r="C266" s="35"/>
+      <c r="D266" s="30"/>
+    </row>
+    <row r="267" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="51">
+        <v>165</v>
+      </c>
+      <c r="B267" s="105"/>
+      <c r="C267" s="35"/>
+      <c r="D267" s="30"/>
+    </row>
+    <row r="268" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="51">
+        <v>166</v>
+      </c>
+      <c r="B268" s="105"/>
+      <c r="C268" s="35"/>
+      <c r="D268" s="30"/>
+    </row>
+    <row r="269" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="51">
+        <v>167</v>
+      </c>
+      <c r="B269" s="105"/>
+      <c r="C269" s="35"/>
+      <c r="D269" s="30"/>
+    </row>
+    <row r="270" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="51">
+        <v>168</v>
+      </c>
+      <c r="B270" s="105"/>
+      <c r="C270" s="35"/>
+      <c r="D270" s="30"/>
+    </row>
+    <row r="271" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="51">
+        <v>169</v>
+      </c>
+      <c r="B271" s="105"/>
+      <c r="C271" s="35"/>
+      <c r="D271" s="30"/>
+    </row>
+    <row r="272" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="51">
+        <v>170</v>
+      </c>
+      <c r="B272" s="105"/>
+      <c r="C272" s="35"/>
+      <c r="D272" s="30"/>
+    </row>
+    <row r="273" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="51">
+        <v>171</v>
+      </c>
+      <c r="B273" s="105"/>
+      <c r="C273" s="35"/>
+      <c r="D273" s="30"/>
+    </row>
+    <row r="274" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="51">
+        <v>172</v>
+      </c>
+      <c r="B274" s="105"/>
+      <c r="C274" s="35"/>
+      <c r="D274" s="30"/>
+    </row>
+    <row r="275" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="51">
+        <v>173</v>
+      </c>
+      <c r="B275" s="105"/>
+      <c r="C275" s="35"/>
+      <c r="D275" s="30"/>
+    </row>
+    <row r="276" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="51">
+        <v>174</v>
+      </c>
+      <c r="B276" s="105"/>
+      <c r="C276" s="35"/>
+      <c r="D276" s="30"/>
+    </row>
+    <row r="277" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="51">
+        <v>175</v>
+      </c>
+      <c r="B277" s="105"/>
+      <c r="C277" s="35"/>
+      <c r="D277" s="30"/>
+    </row>
+    <row r="278" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="51">
+        <v>176</v>
+      </c>
+      <c r="B278" s="105"/>
+      <c r="C278" s="35"/>
+      <c r="D278" s="30"/>
+    </row>
+    <row r="279" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="51">
+        <v>177</v>
+      </c>
+      <c r="B279" s="105"/>
+      <c r="C279" s="35"/>
+      <c r="D279" s="30"/>
+    </row>
+    <row r="280" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="51">
+        <v>178</v>
+      </c>
+      <c r="B280" s="105"/>
+      <c r="C280" s="35"/>
+      <c r="D280" s="30"/>
+    </row>
+    <row r="281" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="51">
+        <v>179</v>
+      </c>
+      <c r="B281" s="105"/>
+      <c r="C281" s="35"/>
+      <c r="D281" s="30"/>
+    </row>
+    <row r="282" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="51">
+        <v>180</v>
+      </c>
+      <c r="B282" s="105"/>
+      <c r="C282" s="35"/>
+      <c r="D282" s="30"/>
+    </row>
+    <row r="283" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="51">
+        <v>181</v>
+      </c>
+      <c r="B283" s="105"/>
+      <c r="C283" s="35"/>
+      <c r="D283" s="30"/>
+    </row>
+    <row r="284" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="51">
+        <v>182</v>
+      </c>
+      <c r="B284" s="105"/>
+      <c r="C284" s="35"/>
+      <c r="D284" s="30"/>
+    </row>
+    <row r="285" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="51">
+        <v>183</v>
+      </c>
+      <c r="B285" s="105"/>
+      <c r="C285" s="35"/>
+      <c r="D285" s="30"/>
+    </row>
+    <row r="286" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="51">
+        <v>184</v>
+      </c>
+      <c r="B286" s="105"/>
+      <c r="C286" s="35"/>
+      <c r="D286" s="30"/>
+    </row>
+    <row r="287" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="51">
+        <v>185</v>
+      </c>
+      <c r="B287" s="105"/>
+      <c r="C287" s="35"/>
+      <c r="D287" s="30"/>
+    </row>
+    <row r="288" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="51">
+        <v>186</v>
+      </c>
+      <c r="B288" s="105"/>
+      <c r="C288" s="35"/>
+      <c r="D288" s="30"/>
+    </row>
+    <row r="289" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="51">
+        <v>187</v>
+      </c>
+      <c r="B289" s="105"/>
+      <c r="C289" s="35"/>
+      <c r="D289" s="30"/>
+    </row>
+    <row r="290" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="51">
+        <v>188</v>
+      </c>
+      <c r="B290" s="105"/>
+      <c r="C290" s="35"/>
+      <c r="D290" s="30"/>
+    </row>
+    <row r="291" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="51">
+        <v>189</v>
+      </c>
+      <c r="B291" s="105"/>
+      <c r="C291" s="35"/>
+      <c r="D291" s="30"/>
+    </row>
+    <row r="292" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="51">
+        <v>190</v>
+      </c>
+      <c r="B292" s="105"/>
+      <c r="C292" s="35"/>
+      <c r="D292" s="30"/>
+    </row>
+    <row r="293" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="51">
+        <v>191</v>
+      </c>
+      <c r="B293" s="105"/>
+      <c r="C293" s="35"/>
+      <c r="D293" s="30"/>
+    </row>
+    <row r="294" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="51">
+        <v>192</v>
+      </c>
+      <c r="B294" s="105"/>
+      <c r="C294" s="35"/>
+      <c r="D294" s="30"/>
+    </row>
+    <row r="295" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="51">
+        <v>193</v>
+      </c>
+      <c r="B295" s="105"/>
+      <c r="C295" s="35"/>
+      <c r="D295" s="30"/>
+    </row>
+    <row r="296" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="51">
+        <v>194</v>
+      </c>
+      <c r="B296" s="105"/>
+      <c r="C296" s="35"/>
+      <c r="D296" s="30"/>
+    </row>
+    <row r="297" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="51">
+        <v>195</v>
+      </c>
+      <c r="B297" s="105"/>
+      <c r="C297" s="35"/>
+      <c r="D297" s="30"/>
+    </row>
+    <row r="298" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="51">
+        <v>196</v>
+      </c>
+      <c r="B298" s="105"/>
+      <c r="C298" s="35"/>
+      <c r="D298" s="30"/>
+    </row>
+    <row r="299" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="51">
+        <v>197</v>
+      </c>
+      <c r="B299" s="105"/>
+      <c r="C299" s="35"/>
+      <c r="D299" s="30"/>
+    </row>
+    <row r="300" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="51">
+        <v>198</v>
+      </c>
+      <c r="B300" s="105"/>
+      <c r="C300" s="35"/>
+      <c r="D300" s="30"/>
+    </row>
+    <row r="301" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="51">
+        <v>199</v>
+      </c>
+      <c r="B301" s="105"/>
+      <c r="C301" s="35"/>
+      <c r="D301" s="30"/>
+    </row>
+    <row r="302" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="51">
+        <v>200</v>
+      </c>
+      <c r="B302" s="105"/>
+      <c r="C302" s="35"/>
+      <c r="D302" s="30"/>
+    </row>
+    <row r="303" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="51">
+        <v>201</v>
+      </c>
+      <c r="B303" s="105"/>
+      <c r="C303" s="35"/>
+      <c r="D303" s="30"/>
+    </row>
+    <row r="304" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="51">
+        <v>202</v>
+      </c>
+      <c r="B304" s="105"/>
+      <c r="C304" s="35"/>
+      <c r="D304" s="30"/>
+    </row>
+    <row r="305" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="51">
+        <v>203</v>
+      </c>
+      <c r="B305" s="105"/>
+      <c r="C305" s="35"/>
+      <c r="D305" s="30"/>
+    </row>
+    <row r="306" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="51">
+        <v>204</v>
+      </c>
+      <c r="B306" s="105"/>
+      <c r="C306" s="35"/>
+      <c r="D306" s="30"/>
+    </row>
+    <row r="307" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="51">
+        <v>205</v>
+      </c>
+      <c r="B307" s="105"/>
+      <c r="C307" s="35"/>
+      <c r="D307" s="30"/>
+    </row>
+    <row r="308" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="51">
+        <v>206</v>
+      </c>
+      <c r="B308" s="105"/>
+      <c r="C308" s="35"/>
+      <c r="D308" s="30"/>
+    </row>
+    <row r="309" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="51">
+        <v>207</v>
+      </c>
+      <c r="B309" s="105"/>
+      <c r="C309" s="35"/>
+      <c r="D309" s="30"/>
+    </row>
+    <row r="310" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="51">
+        <v>208</v>
+      </c>
+      <c r="B310" s="105"/>
+      <c r="C310" s="35"/>
+      <c r="D310" s="30"/>
+    </row>
+    <row r="311" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="51">
+        <v>209</v>
+      </c>
+      <c r="B311" s="105"/>
+      <c r="C311" s="35"/>
+      <c r="D311" s="30"/>
+    </row>
+    <row r="312" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="51">
+        <v>210</v>
+      </c>
+      <c r="B312" s="105"/>
+      <c r="C312" s="35"/>
+      <c r="D312" s="30"/>
+    </row>
+    <row r="313" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="51">
+        <v>211</v>
+      </c>
+      <c r="B313" s="105"/>
+      <c r="C313" s="35"/>
+      <c r="D313" s="30"/>
+    </row>
+    <row r="314" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="51">
+        <v>212</v>
+      </c>
+      <c r="B314" s="105"/>
+      <c r="C314" s="35"/>
+      <c r="D314" s="30"/>
+    </row>
+    <row r="315" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="51">
+        <v>213</v>
+      </c>
+      <c r="B315" s="105"/>
+      <c r="C315" s="35"/>
+      <c r="D315" s="30"/>
+    </row>
+    <row r="316" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="51">
+        <v>214</v>
+      </c>
+      <c r="B316" s="105"/>
+      <c r="C316" s="35"/>
+      <c r="D316" s="30"/>
+    </row>
+    <row r="317" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="51">
+        <v>215</v>
+      </c>
+      <c r="B317" s="105"/>
+      <c r="C317" s="35"/>
+      <c r="D317" s="30"/>
+    </row>
+    <row r="318" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="51">
+        <v>216</v>
+      </c>
+      <c r="B318" s="105"/>
+      <c r="C318" s="35"/>
+      <c r="D318" s="30"/>
+    </row>
+    <row r="319" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="51">
+        <v>217</v>
+      </c>
+      <c r="B319" s="105"/>
+      <c r="C319" s="35"/>
+      <c r="D319" s="30"/>
+    </row>
+    <row r="320" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="51">
+        <v>218</v>
+      </c>
+      <c r="B320" s="105"/>
+      <c r="C320" s="35"/>
+      <c r="D320" s="30"/>
+    </row>
+    <row r="321" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="51">
+        <v>219</v>
+      </c>
+      <c r="B321" s="105"/>
+      <c r="C321" s="35"/>
+      <c r="D321" s="30"/>
+    </row>
+    <row r="322" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="51">
+        <v>220</v>
+      </c>
+      <c r="B322" s="105"/>
+      <c r="C322" s="35"/>
+      <c r="D322" s="30"/>
+    </row>
+    <row r="323" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="51">
+        <v>221</v>
+      </c>
+      <c r="B323" s="105"/>
+      <c r="C323" s="35"/>
+      <c r="D323" s="30"/>
+    </row>
+    <row r="324" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="51">
+        <v>222</v>
+      </c>
+      <c r="B324" s="105"/>
+      <c r="C324" s="35"/>
+      <c r="D324" s="30"/>
+    </row>
+    <row r="325" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="51">
+        <v>223</v>
+      </c>
+      <c r="B325" s="105"/>
+      <c r="C325" s="35"/>
+      <c r="D325" s="30"/>
+    </row>
+    <row r="326" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="51">
+        <v>224</v>
+      </c>
+      <c r="B326" s="105"/>
+      <c r="C326" s="35"/>
+      <c r="D326" s="30"/>
+    </row>
+    <row r="327" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="51">
+        <v>225</v>
+      </c>
+      <c r="B327" s="105"/>
+      <c r="C327" s="35"/>
+      <c r="D327" s="30"/>
+    </row>
+    <row r="328" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="51">
+        <v>226</v>
+      </c>
+      <c r="B328" s="105"/>
+      <c r="C328" s="35"/>
+      <c r="D328" s="30"/>
+    </row>
+    <row r="329" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="51">
+        <v>227</v>
+      </c>
+      <c r="B329" s="105"/>
+      <c r="C329" s="35"/>
+      <c r="D329" s="30"/>
+    </row>
+    <row r="330" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="51">
+        <v>228</v>
+      </c>
+      <c r="B330" s="105"/>
+      <c r="C330" s="35"/>
+      <c r="D330" s="30"/>
+    </row>
+    <row r="331" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="51">
+        <v>229</v>
+      </c>
+      <c r="B331" s="105"/>
+      <c r="C331" s="35"/>
+      <c r="D331" s="30"/>
+    </row>
+    <row r="332" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="51">
+        <v>230</v>
+      </c>
+      <c r="B332" s="105"/>
+      <c r="C332" s="35"/>
+      <c r="D332" s="30"/>
+    </row>
+    <row r="333" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="51">
+        <v>231</v>
+      </c>
+      <c r="B333" s="105"/>
+      <c r="C333" s="35"/>
+      <c r="D333" s="30"/>
+    </row>
+    <row r="334" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="51">
+        <v>232</v>
+      </c>
+      <c r="B334" s="105"/>
+      <c r="C334" s="35"/>
+      <c r="D334" s="30"/>
+    </row>
+    <row r="335" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="51">
+        <v>233</v>
+      </c>
+      <c r="B335" s="105"/>
+      <c r="C335" s="35"/>
+      <c r="D335" s="30"/>
+    </row>
+    <row r="336" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="51">
+        <v>234</v>
+      </c>
+      <c r="B336" s="105"/>
+      <c r="C336" s="35"/>
+      <c r="D336" s="30"/>
+    </row>
+    <row r="337" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="51">
+        <v>235</v>
+      </c>
+      <c r="B337" s="105"/>
+      <c r="C337" s="35"/>
+      <c r="D337" s="30"/>
+    </row>
+    <row r="338" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="51">
+        <v>236</v>
+      </c>
+      <c r="B338" s="105"/>
+      <c r="C338" s="35"/>
+      <c r="D338" s="30"/>
+    </row>
+    <row r="339" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="51">
+        <v>237</v>
+      </c>
+      <c r="B339" s="105"/>
+      <c r="C339" s="35"/>
+      <c r="D339" s="30"/>
+    </row>
+    <row r="340" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="51">
+        <v>238</v>
+      </c>
+      <c r="B340" s="105"/>
+      <c r="C340" s="35"/>
+      <c r="D340" s="30"/>
+    </row>
+    <row r="341" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="51">
+        <v>239</v>
+      </c>
+      <c r="B341" s="105"/>
+      <c r="C341" s="35"/>
+      <c r="D341" s="30"/>
+    </row>
+    <row r="342" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="51">
+        <v>240</v>
+      </c>
+      <c r="B342" s="105"/>
+      <c r="C342" s="35"/>
+      <c r="D342" s="30"/>
+    </row>
+    <row r="343" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="51">
+        <v>241</v>
+      </c>
+      <c r="B343" s="105"/>
+      <c r="C343" s="35"/>
+      <c r="D343" s="30"/>
+    </row>
+    <row r="344" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="51">
+        <v>242</v>
+      </c>
+      <c r="B344" s="105"/>
+      <c r="C344" s="35"/>
+      <c r="D344" s="30"/>
+    </row>
+    <row r="345" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="51">
+        <v>243</v>
+      </c>
+      <c r="B345" s="105"/>
+      <c r="C345" s="35"/>
+      <c r="D345" s="30"/>
+    </row>
+    <row r="346" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="51">
+        <v>244</v>
+      </c>
+      <c r="B346" s="105"/>
+      <c r="C346" s="35"/>
+      <c r="D346" s="30"/>
+    </row>
+    <row r="347" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="51">
+        <v>245</v>
+      </c>
+      <c r="B347" s="105"/>
+      <c r="C347" s="35"/>
+      <c r="D347" s="30"/>
+    </row>
+    <row r="348" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="51">
+        <v>246</v>
+      </c>
+      <c r="B348" s="105"/>
+      <c r="C348" s="35"/>
+      <c r="D348" s="30"/>
+    </row>
+    <row r="349" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="51">
+        <v>247</v>
+      </c>
+      <c r="B349" s="105"/>
+      <c r="C349" s="35"/>
+      <c r="D349" s="30"/>
+    </row>
+    <row r="350" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="51">
+        <v>248</v>
+      </c>
+      <c r="B350" s="105"/>
+      <c r="C350" s="35"/>
+      <c r="D350" s="30"/>
+    </row>
+    <row r="351" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="51">
+        <v>249</v>
+      </c>
+      <c r="B351" s="105"/>
+      <c r="C351" s="35"/>
+      <c r="D351" s="30"/>
+    </row>
+    <row r="352" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="51">
+        <v>250</v>
+      </c>
+      <c r="B352" s="105"/>
+      <c r="C352" s="35"/>
+      <c r="D352" s="30"/>
+    </row>
+    <row r="353" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="51">
+        <v>251</v>
+      </c>
+      <c r="B353" s="105"/>
+      <c r="C353" s="35"/>
+      <c r="D353" s="30"/>
+    </row>
+    <row r="354" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="51">
+        <v>252</v>
+      </c>
+      <c r="B354" s="105"/>
+      <c r="C354" s="35"/>
+      <c r="D354" s="30"/>
+    </row>
+    <row r="355" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="51">
+        <v>253</v>
+      </c>
+      <c r="B355" s="105"/>
+      <c r="C355" s="35"/>
+      <c r="D355" s="30"/>
+    </row>
+    <row r="356" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="51">
+        <v>254</v>
+      </c>
+      <c r="B356" s="105"/>
+      <c r="C356" s="35"/>
+      <c r="D356" s="30"/>
+    </row>
+    <row r="357" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="51">
+        <v>255</v>
+      </c>
+      <c r="B357" s="105"/>
+      <c r="C357" s="35"/>
+      <c r="D357" s="30"/>
+    </row>
+    <row r="358" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="51">
+        <v>256</v>
+      </c>
+      <c r="B358" s="105"/>
+      <c r="C358" s="35"/>
+      <c r="D358" s="30"/>
+    </row>
+    <row r="359" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="51">
+        <v>257</v>
+      </c>
+      <c r="B359" s="105"/>
+      <c r="C359" s="35"/>
+      <c r="D359" s="30"/>
+    </row>
+    <row r="360" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="51">
+        <v>258</v>
+      </c>
+      <c r="B360" s="105"/>
+      <c r="C360" s="35"/>
+      <c r="D360" s="30"/>
+    </row>
+    <row r="361" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="51">
+        <v>259</v>
+      </c>
+      <c r="B361" s="105"/>
+      <c r="C361" s="35"/>
+      <c r="D361" s="30"/>
+    </row>
+    <row r="362" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="51">
+        <v>260</v>
+      </c>
+      <c r="B362" s="105"/>
+      <c r="C362" s="35"/>
+      <c r="D362" s="30"/>
+    </row>
+    <row r="363" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="51">
+        <v>261</v>
+      </c>
+      <c r="B363" s="105"/>
+      <c r="C363" s="35"/>
+      <c r="D363" s="30"/>
+    </row>
+    <row r="364" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="51">
+        <v>262</v>
+      </c>
+      <c r="B364" s="105"/>
+      <c r="C364" s="35"/>
+      <c r="D364" s="30"/>
+    </row>
+    <row r="365" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="51">
+        <v>263</v>
+      </c>
+      <c r="B365" s="105"/>
+      <c r="C365" s="35"/>
+      <c r="D365" s="30"/>
+    </row>
+    <row r="366" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="51">
+        <v>264</v>
+      </c>
+      <c r="B366" s="105"/>
+      <c r="C366" s="35"/>
+      <c r="D366" s="30"/>
+    </row>
+    <row r="367" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="51">
+        <v>265</v>
+      </c>
+      <c r="B367" s="105"/>
+      <c r="C367" s="35"/>
+      <c r="D367" s="30"/>
+    </row>
+    <row r="368" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="51">
+        <v>266</v>
+      </c>
+      <c r="B368" s="105"/>
+      <c r="C368" s="35"/>
+      <c r="D368" s="30"/>
+    </row>
+    <row r="369" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="51">
+        <v>267</v>
+      </c>
+      <c r="B369" s="105"/>
+      <c r="C369" s="35"/>
+      <c r="D369" s="30"/>
+    </row>
+    <row r="370" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="51">
+        <v>268</v>
+      </c>
+      <c r="B370" s="105"/>
+      <c r="C370" s="35"/>
+      <c r="D370" s="30"/>
+    </row>
+    <row r="371" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="51">
+        <v>269</v>
+      </c>
+      <c r="B371" s="105"/>
+      <c r="C371" s="35"/>
+      <c r="D371" s="30"/>
+    </row>
+    <row r="372" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="51">
+        <v>270</v>
+      </c>
+      <c r="B372" s="105"/>
+      <c r="C372" s="35"/>
+      <c r="D372" s="30"/>
+    </row>
+    <row r="373" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="51">
+        <v>271</v>
+      </c>
+      <c r="B373" s="105"/>
+      <c r="C373" s="35"/>
+      <c r="D373" s="30"/>
+    </row>
+    <row r="374" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="51">
+        <v>272</v>
+      </c>
+      <c r="B374" s="105"/>
+      <c r="C374" s="35"/>
+      <c r="D374" s="30"/>
+    </row>
+    <row r="375" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="51">
+        <v>273</v>
+      </c>
+      <c r="B375" s="105"/>
+      <c r="C375" s="35"/>
+      <c r="D375" s="30"/>
+    </row>
+    <row r="376" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="51">
+        <v>274</v>
+      </c>
+      <c r="B376" s="105"/>
+      <c r="C376" s="35"/>
+      <c r="D376" s="30"/>
+    </row>
+    <row r="377" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="51">
+        <v>275</v>
+      </c>
+      <c r="B377" s="105"/>
+      <c r="C377" s="35"/>
+      <c r="D377" s="30"/>
+    </row>
+    <row r="378" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="51">
+        <v>276</v>
+      </c>
+      <c r="B378" s="105"/>
+      <c r="C378" s="35"/>
+      <c r="D378" s="30"/>
+    </row>
+    <row r="379" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="51">
+        <v>277</v>
+      </c>
+      <c r="B379" s="105"/>
+      <c r="C379" s="35"/>
+      <c r="D379" s="30"/>
+    </row>
+    <row r="380" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="51">
+        <v>278</v>
+      </c>
+      <c r="B380" s="105"/>
+      <c r="C380" s="35"/>
+      <c r="D380" s="30"/>
+    </row>
+    <row r="381" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="51">
+        <v>279</v>
+      </c>
+      <c r="B381" s="105"/>
+      <c r="C381" s="35"/>
+      <c r="D381" s="30"/>
+    </row>
+    <row r="382" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="51">
+        <v>280</v>
+      </c>
+      <c r="B382" s="105"/>
+      <c r="C382" s="35"/>
+      <c r="D382" s="30"/>
+    </row>
+    <row r="383" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="51">
+        <v>281</v>
+      </c>
+      <c r="B383" s="105"/>
+      <c r="C383" s="35"/>
+      <c r="D383" s="30"/>
+    </row>
+    <row r="384" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="51">
+        <v>282</v>
+      </c>
+      <c r="B384" s="105"/>
+      <c r="C384" s="35"/>
+      <c r="D384" s="30"/>
+    </row>
+    <row r="385" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="51">
+        <v>283</v>
+      </c>
+      <c r="B385" s="105"/>
+      <c r="C385" s="35"/>
+      <c r="D385" s="30"/>
+    </row>
+    <row r="386" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="51">
+        <v>284</v>
+      </c>
+      <c r="B386" s="105"/>
+      <c r="C386" s="35"/>
+      <c r="D386" s="30"/>
+    </row>
+    <row r="387" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="51">
+        <v>285</v>
+      </c>
+      <c r="B387" s="105"/>
+      <c r="C387" s="35"/>
+      <c r="D387" s="30"/>
+    </row>
+    <row r="388" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="51">
+        <v>286</v>
+      </c>
+      <c r="B388" s="105"/>
+      <c r="C388" s="35"/>
+      <c r="D388" s="30"/>
+    </row>
+    <row r="389" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="51">
+        <v>287</v>
+      </c>
+      <c r="B389" s="105"/>
+      <c r="C389" s="35"/>
+      <c r="D389" s="30"/>
+    </row>
+    <row r="390" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="51">
+        <v>288</v>
+      </c>
+      <c r="B390" s="105"/>
+      <c r="C390" s="35"/>
+      <c r="D390" s="30"/>
+    </row>
+    <row r="391" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="51">
+        <v>289</v>
+      </c>
+      <c r="B391" s="105"/>
+      <c r="C391" s="35"/>
+      <c r="D391" s="30"/>
+    </row>
+    <row r="392" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="51">
+        <v>290</v>
+      </c>
+      <c r="B392" s="105"/>
+      <c r="C392" s="35"/>
+      <c r="D392" s="30"/>
+    </row>
+    <row r="393" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="51">
+        <v>291</v>
+      </c>
+      <c r="B393" s="105"/>
+      <c r="C393" s="35"/>
+      <c r="D393" s="30"/>
+    </row>
+    <row r="394" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="51">
+        <v>292</v>
+      </c>
+      <c r="B394" s="105"/>
+      <c r="C394" s="35"/>
+      <c r="D394" s="30"/>
+    </row>
+    <row r="395" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="51">
+        <v>293</v>
+      </c>
+      <c r="B395" s="105"/>
+      <c r="C395" s="35"/>
+      <c r="D395" s="30"/>
+    </row>
+    <row r="396" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="51">
+        <v>294</v>
+      </c>
+      <c r="B396" s="105"/>
+      <c r="C396" s="35"/>
+      <c r="D396" s="30"/>
+    </row>
+    <row r="397" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="51">
+        <v>295</v>
+      </c>
+      <c r="B397" s="105"/>
+      <c r="C397" s="35"/>
+      <c r="D397" s="30"/>
+    </row>
+    <row r="398" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="51">
+        <v>296</v>
+      </c>
+      <c r="B398" s="105"/>
+      <c r="C398" s="35"/>
+      <c r="D398" s="30"/>
+    </row>
+    <row r="399" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="51">
+        <v>297</v>
+      </c>
+      <c r="B399" s="105"/>
+      <c r="C399" s="35"/>
+      <c r="D399" s="30"/>
+    </row>
+    <row r="400" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="51">
+        <v>298</v>
+      </c>
+      <c r="B400" s="105"/>
+      <c r="C400" s="35"/>
+      <c r="D400" s="30"/>
+    </row>
+    <row r="401" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="51">
+        <v>299</v>
+      </c>
+      <c r="B401" s="105"/>
+      <c r="C401" s="35"/>
+      <c r="D401" s="30"/>
+    </row>
+    <row r="402" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="51">
+        <v>300</v>
+      </c>
+      <c r="B402" s="105"/>
+      <c r="C402" s="35"/>
+      <c r="D402" s="30"/>
+    </row>
+    <row r="403" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="51">
+        <v>301</v>
+      </c>
+      <c r="B403" s="105"/>
+      <c r="C403" s="35"/>
+      <c r="D403" s="30"/>
+    </row>
+    <row r="404" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="51">
+        <v>302</v>
+      </c>
+      <c r="B404" s="105"/>
+      <c r="C404" s="35"/>
+      <c r="D404" s="30"/>
+    </row>
+    <row r="405" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="51">
+        <v>303</v>
+      </c>
+      <c r="B405" s="105"/>
+      <c r="C405" s="35"/>
+      <c r="D405" s="30"/>
+    </row>
+    <row r="406" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="51">
+        <v>304</v>
+      </c>
+      <c r="B406" s="105"/>
+      <c r="C406" s="35"/>
+      <c r="D406" s="30"/>
+    </row>
+    <row r="407" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="51">
+        <v>305</v>
+      </c>
+      <c r="B407" s="105"/>
+      <c r="C407" s="35"/>
+      <c r="D407" s="30"/>
+    </row>
+    <row r="408" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="51">
+        <v>306</v>
+      </c>
+      <c r="B408" s="105"/>
+      <c r="C408" s="35"/>
+      <c r="D408" s="30"/>
+    </row>
+    <row r="409" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="51">
+        <v>307</v>
+      </c>
+      <c r="B409" s="105"/>
+      <c r="C409" s="35"/>
+      <c r="D409" s="30"/>
+    </row>
+    <row r="410" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="51">
+        <v>308</v>
+      </c>
+      <c r="B410" s="105"/>
+      <c r="C410" s="35"/>
+      <c r="D410" s="30"/>
+    </row>
+    <row r="411" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="51">
+        <v>309</v>
+      </c>
+      <c r="B411" s="105"/>
+      <c r="C411" s="35"/>
+      <c r="D411" s="30"/>
+    </row>
+    <row r="412" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="52">
+        <v>310</v>
+      </c>
+      <c r="B412" s="106"/>
+      <c r="C412" s="37"/>
+      <c r="D412" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A7:I8"/>
+    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="A58:D59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="A72:I73"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F58:I59"/>
+    <mergeCell ref="G33:I34"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="B9:D10"/>
     <mergeCell ref="A100:D101"/>
     <mergeCell ref="G74:I75"/>
     <mergeCell ref="G87:I88"/>
@@ -2861,27 +5241,13 @@
     <mergeCell ref="F83:F85"/>
     <mergeCell ref="F80:F82"/>
     <mergeCell ref="F77:F79"/>
-    <mergeCell ref="F58:I59"/>
-    <mergeCell ref="G33:I34"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="B9:D10"/>
     <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A1:I5"/>
-    <mergeCell ref="A58:D59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="A72:I73"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
     <mergeCell ref="B87:D88"/>
     <mergeCell ref="B74:D75"/>
     <mergeCell ref="A93:A95"/>
     <mergeCell ref="A90:A92"/>
     <mergeCell ref="A83:A85"/>
     <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
